--- a/raw/Concepts_metafeatures.xlsx
+++ b/raw/Concepts_metafeatures.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>concept_id</t>
   </si>
@@ -28,17 +28,17 @@
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,12 +89,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0"/>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
@@ -432,31 +431,31 @@
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>61</v>
-      </c>
-      <c r="B45" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
         <v>11</v>
       </c>
+      <c r="B46" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B47" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B48" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
@@ -464,15 +463,15 @@
         <v>11</v>
       </c>
       <c r="B49" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B50" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -480,7 +479,7 @@
         <v>74</v>
       </c>
       <c r="B51" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
@@ -488,7 +487,7 @@
         <v>74</v>
       </c>
       <c r="B52" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -496,15 +495,15 @@
         <v>74</v>
       </c>
       <c r="B53" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -512,15 +511,15 @@
         <v>75</v>
       </c>
       <c r="B55" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -528,7 +527,7 @@
         <v>76</v>
       </c>
       <c r="B57" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -536,28 +535,28 @@
         <v>76</v>
       </c>
       <c r="B58" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B59" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B60" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B61" s="7">
         <v>35</v>
@@ -565,23 +564,23 @@
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B62" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B63" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B64" s="7">
         <v>37</v>
@@ -589,7 +588,7 @@
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B65" s="7">
         <v>37</v>
@@ -597,15 +596,15 @@
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B66" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B67" s="7">
         <v>38</v>
@@ -613,7 +612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B68" s="7">
         <v>38</v>
@@ -621,15 +620,15 @@
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B69" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B70" s="7">
         <v>39</v>
@@ -637,23 +636,23 @@
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" s="7">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B72" s="7">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B73" s="7">
         <v>44</v>
@@ -661,7 +660,7 @@
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B74" s="7">
         <v>44</v>
@@ -669,7 +668,7 @@
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B75" s="7">
         <v>44</v>
@@ -677,7 +676,7 @@
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="B76" s="7">
         <v>44</v>
@@ -685,15 +684,15 @@
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="B77" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B78" s="7">
         <v>43</v>
@@ -701,7 +700,7 @@
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B79" s="7">
         <v>43</v>
@@ -709,7 +708,7 @@
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B80" s="7">
         <v>43</v>
@@ -717,15 +716,15 @@
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B81" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B82" s="7">
         <v>42</v>
@@ -733,7 +732,7 @@
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B83" s="7">
         <v>42</v>
@@ -741,7 +740,7 @@
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7">
         <v>42</v>
@@ -749,15 +748,15 @@
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B85" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B86" s="7">
         <v>41</v>
@@ -765,7 +764,7 @@
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B87" s="7">
         <v>41</v>
@@ -773,15 +772,15 @@
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B88" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B89" s="7">
         <v>45</v>
@@ -789,7 +788,7 @@
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B90" s="7">
         <v>45</v>
@@ -797,15 +796,15 @@
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B91" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B92" s="7">
         <v>50</v>
@@ -813,7 +812,7 @@
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B93" s="7">
         <v>50</v>
@@ -821,15 +820,15 @@
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B94" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B95" s="7">
         <v>51</v>
@@ -837,15 +836,15 @@
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B96" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B97" s="7">
         <v>52</v>
@@ -853,15 +852,15 @@
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B98" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B99" s="7">
         <v>55</v>
@@ -869,7 +868,7 @@
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B100" s="7">
         <v>55</v>
@@ -877,15 +876,15 @@
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B101" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B102" s="7">
         <v>54</v>
@@ -893,7 +892,7 @@
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B103" s="7">
         <v>54</v>
@@ -901,23 +900,23 @@
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B104" s="7">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B105" s="7">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B106" s="7">
         <v>56</v>
@@ -928,7 +927,7 @@
         <v>35</v>
       </c>
       <c r="B107" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108">
@@ -936,7 +935,7 @@
         <v>35</v>
       </c>
       <c r="B108" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109">
@@ -944,12 +943,12 @@
         <v>35</v>
       </c>
       <c r="B109" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B110" s="7">
         <v>59</v>
@@ -960,7 +959,7 @@
         <v>105</v>
       </c>
       <c r="B111" s="7">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112">
@@ -968,20 +967,20 @@
         <v>105</v>
       </c>
       <c r="B112" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B113" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B114" s="7">
         <v>60</v>
@@ -989,7 +988,7 @@
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B115" s="7">
         <v>60</v>
@@ -997,15 +996,15 @@
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B116" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B117" s="7">
         <v>61</v>
@@ -1013,7 +1012,7 @@
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B118" s="7">
         <v>61</v>
@@ -1021,15 +1020,15 @@
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="B119" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B120" s="7">
         <v>62</v>
@@ -1037,15 +1036,15 @@
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B121" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B122" s="7">
         <v>63</v>
@@ -1053,15 +1052,15 @@
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B123" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B124" s="7">
         <v>64</v>
@@ -1069,15 +1068,15 @@
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B125" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B126" s="7">
         <v>65</v>
@@ -1085,15 +1084,15 @@
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="B127" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B128" s="7">
         <v>66</v>
@@ -1101,18 +1100,18 @@
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B129" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B130" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131">
@@ -1120,7 +1119,7 @@
         <v>104</v>
       </c>
       <c r="B131" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132">
@@ -1128,7 +1127,7 @@
         <v>104</v>
       </c>
       <c r="B132" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
@@ -1136,20 +1135,20 @@
         <v>104</v>
       </c>
       <c r="B133" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B134" s="7">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" s="7">
         <v>78</v>
@@ -1157,15 +1156,15 @@
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B136" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B137" s="7">
         <v>79</v>
@@ -1173,10 +1172,10 @@
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="B138" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="139">
@@ -1184,15 +1183,15 @@
         <v>49</v>
       </c>
       <c r="B139" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B140" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="141">
@@ -1200,15 +1199,15 @@
         <v>113</v>
       </c>
       <c r="B141" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B142" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="143">
@@ -1216,15 +1215,15 @@
         <v>99</v>
       </c>
       <c r="B143" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B144" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145">
@@ -1232,12 +1231,12 @@
         <v>59</v>
       </c>
       <c r="B145" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B146" s="7">
         <v>83</v>
@@ -1248,20 +1247,20 @@
         <v>118</v>
       </c>
       <c r="B147" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B148" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B149" s="7">
         <v>84</v>
@@ -1272,12 +1271,12 @@
         <v>1</v>
       </c>
       <c r="B150" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B151" s="7">
         <v>85</v>
@@ -1288,7 +1287,7 @@
         <v>59</v>
       </c>
       <c r="B152" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153">
@@ -1296,15 +1295,15 @@
         <v>59</v>
       </c>
       <c r="B153" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B154" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155">
@@ -1312,20 +1311,20 @@
         <v>121</v>
       </c>
       <c r="B155" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="B156" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B157" s="7">
         <v>88</v>
@@ -1333,7 +1332,7 @@
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B158" s="7">
         <v>88</v>
@@ -1341,7 +1340,7 @@
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B159" s="7">
         <v>88</v>
@@ -1349,15 +1348,15 @@
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B160" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B161" s="7">
         <v>89</v>
@@ -1365,7 +1364,7 @@
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B162" s="7">
         <v>89</v>
@@ -1373,7 +1372,7 @@
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B163" s="7">
         <v>89</v>
@@ -1381,15 +1380,15 @@
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B164" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B165" s="7">
         <v>90</v>
@@ -1397,15 +1396,15 @@
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B166" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B167" s="7">
         <v>91</v>
@@ -1413,7 +1412,7 @@
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B168" s="7">
         <v>91</v>
@@ -1421,7 +1420,7 @@
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B169" s="7">
         <v>91</v>
@@ -1429,15 +1428,15 @@
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B170" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B171" s="7">
         <v>90</v>
@@ -1445,15 +1444,15 @@
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B172" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="B173" s="7">
         <v>92</v>
@@ -1464,12 +1463,12 @@
         <v>59</v>
       </c>
       <c r="B174" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="B175" s="7">
         <v>93</v>
@@ -1477,15 +1476,15 @@
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B176" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B177" s="7">
         <v>95</v>
@@ -1493,15 +1492,15 @@
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B178" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="B179" s="7">
         <v>94</v>
@@ -1512,12 +1511,12 @@
         <v>59</v>
       </c>
       <c r="B180" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B181" s="7">
         <v>96</v>
@@ -1525,15 +1524,15 @@
     </row>
     <row r="182">
       <c r="A182" s="6">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="B182" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="6">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B183" s="7">
         <v>97</v>
@@ -1541,10 +1540,10 @@
     </row>
     <row r="184">
       <c r="A184" s="6">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="B184" s="7">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -1552,15 +1551,15 @@
         <v>79</v>
       </c>
       <c r="B185" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B186" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187">
@@ -1568,20 +1567,20 @@
         <v>140</v>
       </c>
       <c r="B187" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B188" s="7">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="B189" s="7">
         <v>100</v>
@@ -1589,7 +1588,7 @@
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="B190" s="7">
         <v>100</v>
@@ -1600,12 +1599,12 @@
         <v>141</v>
       </c>
       <c r="B191" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="B192" s="7">
         <v>101</v>
@@ -1613,7 +1612,7 @@
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="B193" s="7">
         <v>101</v>
@@ -1621,15 +1620,15 @@
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B194" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="B195" s="7">
         <v>102</v>
@@ -1637,7 +1636,7 @@
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="B196" s="7">
         <v>102</v>
@@ -1645,15 +1644,15 @@
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B197" s="7">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B198" s="7">
         <v>110</v>
@@ -1661,15 +1660,15 @@
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B199" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B200" s="7">
         <v>109</v>
@@ -1677,15 +1676,15 @@
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B201" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B202" s="7">
         <v>108</v>
@@ -1693,15 +1692,15 @@
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B203" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B204" s="7">
         <v>107</v>
@@ -1709,15 +1708,15 @@
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B205" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B206" s="7">
         <v>106</v>
@@ -1725,15 +1724,15 @@
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B207" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B208" s="7">
         <v>105</v>
@@ -1741,15 +1740,15 @@
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B209" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B210" s="7">
         <v>104</v>
@@ -1757,15 +1756,15 @@
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B211" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B212" s="7">
         <v>103</v>
@@ -1773,15 +1772,15 @@
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B213" s="7">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B214" s="7">
         <v>111</v>
@@ -1789,10 +1788,10 @@
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B215" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216">
@@ -1800,12 +1799,12 @@
         <v>10</v>
       </c>
       <c r="B216" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B217" s="7">
         <v>113</v>
@@ -1816,7 +1815,7 @@
         <v>43</v>
       </c>
       <c r="B218" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="219">
@@ -1824,12 +1823,12 @@
         <v>43</v>
       </c>
       <c r="B219" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B220" s="7">
         <v>114</v>
@@ -1837,7 +1836,7 @@
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="B221" s="7">
         <v>114</v>
@@ -1845,10 +1844,2946 @@
     </row>
     <row r="222">
       <c r="A222" s="6">
+        <v>149</v>
+      </c>
+      <c r="B222" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6">
+        <v>149</v>
+      </c>
+      <c r="B223" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="6">
+        <v>121</v>
+      </c>
+      <c r="B224" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6">
+        <v>121</v>
+      </c>
+      <c r="B225" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="6">
+        <v>47</v>
+      </c>
+      <c r="B226" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6">
+        <v>46</v>
+      </c>
+      <c r="B227" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6">
+        <v>46</v>
+      </c>
+      <c r="B228" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6">
+        <v>47</v>
+      </c>
+      <c r="B229" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="6">
+        <v>47</v>
+      </c>
+      <c r="B230" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6">
+        <v>47</v>
+      </c>
+      <c r="B231" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="6">
+        <v>150</v>
+      </c>
+      <c r="B232" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6">
+        <v>150</v>
+      </c>
+      <c r="B233" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="6">
+        <v>47</v>
+      </c>
+      <c r="B234" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6">
+        <v>47</v>
+      </c>
+      <c r="B235" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="6">
+        <v>35</v>
+      </c>
+      <c r="B236" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6">
+        <v>107</v>
+      </c>
+      <c r="B237" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6">
+        <v>57</v>
+      </c>
+      <c r="B238" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6">
+        <v>54</v>
+      </c>
+      <c r="B239" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="6">
+        <v>152</v>
+      </c>
+      <c r="B240" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6">
+        <v>57</v>
+      </c>
+      <c r="B241" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="6">
+        <v>54</v>
+      </c>
+      <c r="B242" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6">
+        <v>152</v>
+      </c>
+      <c r="B243" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="6">
+        <v>32</v>
+      </c>
+      <c r="B244" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6">
+        <v>77</v>
+      </c>
+      <c r="B245" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="6">
+        <v>125</v>
+      </c>
+      <c r="B246" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6">
+        <v>59</v>
+      </c>
+      <c r="B247" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6">
+        <v>131</v>
+      </c>
+      <c r="B248" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6">
+        <v>59</v>
+      </c>
+      <c r="B249" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6">
+        <v>77</v>
+      </c>
+      <c r="B250" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6">
+        <v>125</v>
+      </c>
+      <c r="B251" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6">
+        <v>131</v>
+      </c>
+      <c r="B252" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6">
+        <v>59</v>
+      </c>
+      <c r="B253" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6">
+        <v>125</v>
+      </c>
+      <c r="B254" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6">
+        <v>77</v>
+      </c>
+      <c r="B255" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6">
+        <v>131</v>
+      </c>
+      <c r="B256" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6">
+        <v>77</v>
+      </c>
+      <c r="B257" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6">
+        <v>59</v>
+      </c>
+      <c r="B258" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6">
+        <v>48</v>
+      </c>
+      <c r="B259" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6">
+        <v>59</v>
+      </c>
+      <c r="B260" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6">
+        <v>77</v>
+      </c>
+      <c r="B261" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6">
+        <v>48</v>
+      </c>
+      <c r="B262" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6">
+        <v>59</v>
+      </c>
+      <c r="B263" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="6">
+        <v>48</v>
+      </c>
+      <c r="B264" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6">
+        <v>77</v>
+      </c>
+      <c r="B265" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="6">
+        <v>59</v>
+      </c>
+      <c r="B266" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6">
+        <v>48</v>
+      </c>
+      <c r="B267" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="6">
+        <v>77</v>
+      </c>
+      <c r="B268" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6">
+        <v>155</v>
+      </c>
+      <c r="B269" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="6">
+        <v>155</v>
+      </c>
+      <c r="B270" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6">
+        <v>24</v>
+      </c>
+      <c r="B271" s="7">
         <v>142</v>
       </c>
-      <c r="B222" s="7">
-        <v>114</v>
+    </row>
+    <row r="272">
+      <c r="A272" s="6">
+        <v>22</v>
+      </c>
+      <c r="B272" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6">
+        <v>16</v>
+      </c>
+      <c r="B273" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="6">
+        <v>24</v>
+      </c>
+      <c r="B274" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6">
+        <v>22</v>
+      </c>
+      <c r="B275" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="6">
+        <v>16</v>
+      </c>
+      <c r="B276" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6">
+        <v>22</v>
+      </c>
+      <c r="B277" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="6">
+        <v>24</v>
+      </c>
+      <c r="B278" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6">
+        <v>16</v>
+      </c>
+      <c r="B279" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="6">
+        <v>22</v>
+      </c>
+      <c r="B280" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6">
+        <v>24</v>
+      </c>
+      <c r="B281" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="6">
+        <v>50</v>
+      </c>
+      <c r="B282" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6">
+        <v>16</v>
+      </c>
+      <c r="B283" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="6">
+        <v>50</v>
+      </c>
+      <c r="B284" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6">
+        <v>16</v>
+      </c>
+      <c r="B285" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="6">
+        <v>22</v>
+      </c>
+      <c r="B286" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6">
+        <v>24</v>
+      </c>
+      <c r="B287" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="6">
+        <v>22</v>
+      </c>
+      <c r="B288" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6">
+        <v>24</v>
+      </c>
+      <c r="B289" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="6">
+        <v>24</v>
+      </c>
+      <c r="B290" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6">
+        <v>53</v>
+      </c>
+      <c r="B291" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="6">
+        <v>24</v>
+      </c>
+      <c r="B292" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6">
+        <v>53</v>
+      </c>
+      <c r="B293" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="6">
+        <v>159</v>
+      </c>
+      <c r="B294" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6">
+        <v>10</v>
+      </c>
+      <c r="B295" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="6">
+        <v>159</v>
+      </c>
+      <c r="B296" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6">
+        <v>10</v>
+      </c>
+      <c r="B297" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="6">
+        <v>160</v>
+      </c>
+      <c r="B298" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="6">
+        <v>10</v>
+      </c>
+      <c r="B299" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="6">
+        <v>160</v>
+      </c>
+      <c r="B300" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="6">
+        <v>10</v>
+      </c>
+      <c r="B301" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="6">
+        <v>38</v>
+      </c>
+      <c r="B302" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="6">
+        <v>38</v>
+      </c>
+      <c r="B303" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="6">
+        <v>22</v>
+      </c>
+      <c r="B304" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6">
+        <v>10</v>
+      </c>
+      <c r="B305" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6">
+        <v>22</v>
+      </c>
+      <c r="B306" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="6">
+        <v>10</v>
+      </c>
+      <c r="B307" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="6">
+        <v>22</v>
+      </c>
+      <c r="B308" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="6">
+        <v>10</v>
+      </c>
+      <c r="B309" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="6">
+        <v>35</v>
+      </c>
+      <c r="B310" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="6">
+        <v>35</v>
+      </c>
+      <c r="B311" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="6">
+        <v>35</v>
+      </c>
+      <c r="B312" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="6">
+        <v>35</v>
+      </c>
+      <c r="B313" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="6">
+        <v>161</v>
+      </c>
+      <c r="B314" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6">
+        <v>161</v>
+      </c>
+      <c r="B315" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="6">
+        <v>161</v>
+      </c>
+      <c r="B316" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="6">
+        <v>162</v>
+      </c>
+      <c r="B317" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="6">
+        <v>161</v>
+      </c>
+      <c r="B318" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="6">
+        <v>162</v>
+      </c>
+      <c r="B319" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="6">
+        <v>163</v>
+      </c>
+      <c r="B320" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6">
+        <v>130</v>
+      </c>
+      <c r="B321" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6">
+        <v>163</v>
+      </c>
+      <c r="B322" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6">
+        <v>163</v>
+      </c>
+      <c r="B323" s="7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="6">
+        <v>55</v>
+      </c>
+      <c r="B324" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="6">
+        <v>1</v>
+      </c>
+      <c r="B325" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="6">
+        <v>1</v>
+      </c>
+      <c r="B326" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="6">
+        <v>55</v>
+      </c>
+      <c r="B327" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="6">
+        <v>55</v>
+      </c>
+      <c r="B328" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="6">
+        <v>55</v>
+      </c>
+      <c r="B329" s="7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="6">
+        <v>55</v>
+      </c>
+      <c r="B330" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="6">
+        <v>1</v>
+      </c>
+      <c r="B331" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="6">
+        <v>1</v>
+      </c>
+      <c r="B332" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="6">
+        <v>55</v>
+      </c>
+      <c r="B333" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="6">
+        <v>55</v>
+      </c>
+      <c r="B334" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="6">
+        <v>1</v>
+      </c>
+      <c r="B335" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="6">
+        <v>1</v>
+      </c>
+      <c r="B336" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="6">
+        <v>55</v>
+      </c>
+      <c r="B337" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="6">
+        <v>1</v>
+      </c>
+      <c r="B338" s="7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="6">
+        <v>55</v>
+      </c>
+      <c r="B339" s="7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="6">
+        <v>1</v>
+      </c>
+      <c r="B340" s="7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="6">
+        <v>55</v>
+      </c>
+      <c r="B341" s="7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="6">
+        <v>164</v>
+      </c>
+      <c r="B342" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="6">
+        <v>164</v>
+      </c>
+      <c r="B343" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="6">
+        <v>164</v>
+      </c>
+      <c r="B344" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="6">
+        <v>165</v>
+      </c>
+      <c r="B345" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="6">
+        <v>165</v>
+      </c>
+      <c r="B346" s="7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="6">
+        <v>164</v>
+      </c>
+      <c r="B347" s="7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="6">
+        <v>164</v>
+      </c>
+      <c r="B348" s="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="6">
+        <v>166</v>
+      </c>
+      <c r="B349" s="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="6">
+        <v>164</v>
+      </c>
+      <c r="B350" s="7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="6">
+        <v>166</v>
+      </c>
+      <c r="B351" s="7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="6">
+        <v>164</v>
+      </c>
+      <c r="B352" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="6">
+        <v>165</v>
+      </c>
+      <c r="B353" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="6">
+        <v>164</v>
+      </c>
+      <c r="B354" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="6">
+        <v>165</v>
+      </c>
+      <c r="B355" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="6">
+        <v>55</v>
+      </c>
+      <c r="B356" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="6">
+        <v>59</v>
+      </c>
+      <c r="B357" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="6">
+        <v>64</v>
+      </c>
+      <c r="B358" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="6">
+        <v>55</v>
+      </c>
+      <c r="B359" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="6">
+        <v>64</v>
+      </c>
+      <c r="B360" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="6">
+        <v>59</v>
+      </c>
+      <c r="B361" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="6">
+        <v>167</v>
+      </c>
+      <c r="B362" s="7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="6">
+        <v>167</v>
+      </c>
+      <c r="B363" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="6">
+        <v>133</v>
+      </c>
+      <c r="B364" s="7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="6">
+        <v>133</v>
+      </c>
+      <c r="B365" s="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="6">
+        <v>16</v>
+      </c>
+      <c r="B366" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="6">
+        <v>35</v>
+      </c>
+      <c r="B367" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="6">
+        <v>175</v>
+      </c>
+      <c r="B368" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="6">
+        <v>176</v>
+      </c>
+      <c r="B369" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="6">
+        <v>16</v>
+      </c>
+      <c r="B370" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="6">
+        <v>35</v>
+      </c>
+      <c r="B371" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="6">
+        <v>44</v>
+      </c>
+      <c r="B372" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="6">
+        <v>176</v>
+      </c>
+      <c r="B373" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="6">
+        <v>16</v>
+      </c>
+      <c r="B374" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="6">
+        <v>176</v>
+      </c>
+      <c r="B375" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="6">
+        <v>35</v>
+      </c>
+      <c r="B376" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="6">
+        <v>44</v>
+      </c>
+      <c r="B377" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="6">
+        <v>16</v>
+      </c>
+      <c r="B378" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="6">
+        <v>35</v>
+      </c>
+      <c r="B379" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="6">
+        <v>175</v>
+      </c>
+      <c r="B380" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="6">
+        <v>16</v>
+      </c>
+      <c r="B381" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="6">
+        <v>35</v>
+      </c>
+      <c r="B382" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="6">
+        <v>176</v>
+      </c>
+      <c r="B383" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="6">
+        <v>44</v>
+      </c>
+      <c r="B384" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="6">
+        <v>35</v>
+      </c>
+      <c r="B385" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="6">
+        <v>36</v>
+      </c>
+      <c r="B386" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="6">
+        <v>35</v>
+      </c>
+      <c r="B387" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="6">
+        <v>36</v>
+      </c>
+      <c r="B388" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="6">
+        <v>35</v>
+      </c>
+      <c r="B389" s="7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="6">
+        <v>36</v>
+      </c>
+      <c r="B390" s="7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="6">
+        <v>176</v>
+      </c>
+      <c r="B391" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="6">
+        <v>154</v>
+      </c>
+      <c r="B392" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="6">
+        <v>98</v>
+      </c>
+      <c r="B393" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="6">
+        <v>10</v>
+      </c>
+      <c r="B394" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="6">
+        <v>176</v>
+      </c>
+      <c r="B395" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="6">
+        <v>98</v>
+      </c>
+      <c r="B396" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="6">
+        <v>154</v>
+      </c>
+      <c r="B397" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="6">
+        <v>10</v>
+      </c>
+      <c r="B398" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="6">
+        <v>176</v>
+      </c>
+      <c r="B399" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="6">
+        <v>154</v>
+      </c>
+      <c r="B400" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="6">
+        <v>98</v>
+      </c>
+      <c r="B401" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="6">
+        <v>10</v>
+      </c>
+      <c r="B402" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="6">
+        <v>177</v>
+      </c>
+      <c r="B403" s="7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="6">
+        <v>177</v>
+      </c>
+      <c r="B404" s="7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="6">
+        <v>26</v>
+      </c>
+      <c r="B405" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="6">
+        <v>189</v>
+      </c>
+      <c r="B406" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="6">
+        <v>189</v>
+      </c>
+      <c r="B407" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="6">
+        <v>26</v>
+      </c>
+      <c r="B408" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="6">
+        <v>192</v>
+      </c>
+      <c r="B409" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="6">
+        <v>189</v>
+      </c>
+      <c r="B410" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="6">
+        <v>192</v>
+      </c>
+      <c r="B411" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="6">
+        <v>195</v>
+      </c>
+      <c r="B412" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="6">
+        <v>196</v>
+      </c>
+      <c r="B413" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="6">
+        <v>195</v>
+      </c>
+      <c r="B414" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="6">
+        <v>196</v>
+      </c>
+      <c r="B415" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="6">
+        <v>38</v>
+      </c>
+      <c r="B416" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="6">
+        <v>38</v>
+      </c>
+      <c r="B417" s="7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="6">
+        <v>197</v>
+      </c>
+      <c r="B418" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="6">
+        <v>197</v>
+      </c>
+      <c r="B419" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="6">
+        <v>200</v>
+      </c>
+      <c r="B420" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="6">
+        <v>201</v>
+      </c>
+      <c r="B421" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="6">
+        <v>200</v>
+      </c>
+      <c r="B422" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="6">
+        <v>201</v>
+      </c>
+      <c r="B423" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="6">
+        <v>203</v>
+      </c>
+      <c r="B424" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="6">
+        <v>203</v>
+      </c>
+      <c r="B425" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="6">
+        <v>145</v>
+      </c>
+      <c r="B426" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="6">
+        <v>145</v>
+      </c>
+      <c r="B427" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="6">
+        <v>206</v>
+      </c>
+      <c r="B428" s="7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="6">
+        <v>206</v>
+      </c>
+      <c r="B429" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="6">
+        <v>145</v>
+      </c>
+      <c r="B430" s="7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="6">
+        <v>208</v>
+      </c>
+      <c r="B431" s="7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="6">
+        <v>208</v>
+      </c>
+      <c r="B432" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="6">
+        <v>145</v>
+      </c>
+      <c r="B433" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="6">
+        <v>207</v>
+      </c>
+      <c r="B434" s="7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="6">
+        <v>207</v>
+      </c>
+      <c r="B435" s="7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="6">
+        <v>205</v>
+      </c>
+      <c r="B436" s="7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="6">
+        <v>205</v>
+      </c>
+      <c r="B437" s="7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="6">
+        <v>145</v>
+      </c>
+      <c r="B438" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="6">
+        <v>208</v>
+      </c>
+      <c r="B439" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="6">
+        <v>208</v>
+      </c>
+      <c r="B440" s="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="6">
+        <v>145</v>
+      </c>
+      <c r="B441" s="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="6">
+        <v>208</v>
+      </c>
+      <c r="B442" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="6">
+        <v>208</v>
+      </c>
+      <c r="B443" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="6">
+        <v>104</v>
+      </c>
+      <c r="B444" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="6">
+        <v>104</v>
+      </c>
+      <c r="B445" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="6">
+        <v>104</v>
+      </c>
+      <c r="B446" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="6">
+        <v>104</v>
+      </c>
+      <c r="B447" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="6">
+        <v>198</v>
+      </c>
+      <c r="B448" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="6">
+        <v>198</v>
+      </c>
+      <c r="B449" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="6">
+        <v>160</v>
+      </c>
+      <c r="B450" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="6">
+        <v>160</v>
+      </c>
+      <c r="B451" s="7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="6">
+        <v>69</v>
+      </c>
+      <c r="B452" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="6">
+        <v>126</v>
+      </c>
+      <c r="B453" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="6">
+        <v>127</v>
+      </c>
+      <c r="B454" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="6">
+        <v>117</v>
+      </c>
+      <c r="B455" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="6">
+        <v>186</v>
+      </c>
+      <c r="B456" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="6">
+        <v>183</v>
+      </c>
+      <c r="B457" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="6">
+        <v>186</v>
+      </c>
+      <c r="B458" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="6">
+        <v>183</v>
+      </c>
+      <c r="B459" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="6">
+        <v>182</v>
+      </c>
+      <c r="B460" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="6">
+        <v>186</v>
+      </c>
+      <c r="B461" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="6">
+        <v>95</v>
+      </c>
+      <c r="B462" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="6">
+        <v>33</v>
+      </c>
+      <c r="B463" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="6">
+        <v>88</v>
+      </c>
+      <c r="B464" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="6">
+        <v>33</v>
+      </c>
+      <c r="B465" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="6">
+        <v>95</v>
+      </c>
+      <c r="B466" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="6">
+        <v>88</v>
+      </c>
+      <c r="B467" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="6">
+        <v>10</v>
+      </c>
+      <c r="B468" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="6">
+        <v>77</v>
+      </c>
+      <c r="B469" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="6">
+        <v>209</v>
+      </c>
+      <c r="B470" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="6">
+        <v>209</v>
+      </c>
+      <c r="B471" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="6">
+        <v>10</v>
+      </c>
+      <c r="B472" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="6">
+        <v>77</v>
+      </c>
+      <c r="B473" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="6">
+        <v>209</v>
+      </c>
+      <c r="B474" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="6">
+        <v>10</v>
+      </c>
+      <c r="B475" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="6">
+        <v>77</v>
+      </c>
+      <c r="B476" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="6">
+        <v>77</v>
+      </c>
+      <c r="B477" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="6">
+        <v>10</v>
+      </c>
+      <c r="B478" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="6">
+        <v>53</v>
+      </c>
+      <c r="B479" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="6">
+        <v>10</v>
+      </c>
+      <c r="B480" s="7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="6">
+        <v>53</v>
+      </c>
+      <c r="B481" s="7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="6">
+        <v>77</v>
+      </c>
+      <c r="B482" s="7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="6">
+        <v>10</v>
+      </c>
+      <c r="B483" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="6">
+        <v>77</v>
+      </c>
+      <c r="B484" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="6">
+        <v>53</v>
+      </c>
+      <c r="B485" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="6">
+        <v>35</v>
+      </c>
+      <c r="B486" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="6">
+        <v>16</v>
+      </c>
+      <c r="B487" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="6">
+        <v>16</v>
+      </c>
+      <c r="B488" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="6">
+        <v>35</v>
+      </c>
+      <c r="B489" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="6">
+        <v>210</v>
+      </c>
+      <c r="B490" s="7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="6">
+        <v>163</v>
+      </c>
+      <c r="B491" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="6">
+        <v>125</v>
+      </c>
+      <c r="B492" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="6">
+        <v>88</v>
+      </c>
+      <c r="B493" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="6">
+        <v>212</v>
+      </c>
+      <c r="B494" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="6">
+        <v>212</v>
+      </c>
+      <c r="B495" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="6">
+        <v>212</v>
+      </c>
+      <c r="B496" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="6">
+        <v>212</v>
+      </c>
+      <c r="B497" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="6">
+        <v>212</v>
+      </c>
+      <c r="B498" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="6">
+        <v>212</v>
+      </c>
+      <c r="B499" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="6">
+        <v>212</v>
+      </c>
+      <c r="B500" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="6">
+        <v>212</v>
+      </c>
+      <c r="B501" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="6">
+        <v>212</v>
+      </c>
+      <c r="B502" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="6">
+        <v>212</v>
+      </c>
+      <c r="B503" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="6">
+        <v>212</v>
+      </c>
+      <c r="B504" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="6">
+        <v>213</v>
+      </c>
+      <c r="B505" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="6">
+        <v>213</v>
+      </c>
+      <c r="B506" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="6">
+        <v>213</v>
+      </c>
+      <c r="B507" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="6">
+        <v>213</v>
+      </c>
+      <c r="B508" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="6">
+        <v>212</v>
+      </c>
+      <c r="B509" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="6">
+        <v>212</v>
+      </c>
+      <c r="B510" s="7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="6">
+        <v>32</v>
+      </c>
+      <c r="B511" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="6">
+        <v>15</v>
+      </c>
+      <c r="B512" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="6">
+        <v>212</v>
+      </c>
+      <c r="B513" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="6">
+        <v>212</v>
+      </c>
+      <c r="B514" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="6">
+        <v>212</v>
+      </c>
+      <c r="B515" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="6">
+        <v>212</v>
+      </c>
+      <c r="B516" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="6">
+        <v>70</v>
+      </c>
+      <c r="B517" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="6">
+        <v>56</v>
+      </c>
+      <c r="B518" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="6">
+        <v>212</v>
+      </c>
+      <c r="B519" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="6">
+        <v>70</v>
+      </c>
+      <c r="B520" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="6">
+        <v>56</v>
+      </c>
+      <c r="B521" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="6">
+        <v>212</v>
+      </c>
+      <c r="B522" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="6">
+        <v>62</v>
+      </c>
+      <c r="B523" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="6">
+        <v>53</v>
+      </c>
+      <c r="B524" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="6">
+        <v>212</v>
+      </c>
+      <c r="B525" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="6">
+        <v>214</v>
+      </c>
+      <c r="B526" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="6">
+        <v>62</v>
+      </c>
+      <c r="B527" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="6">
+        <v>53</v>
+      </c>
+      <c r="B528" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="6">
+        <v>214</v>
+      </c>
+      <c r="B529" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="6">
+        <v>62</v>
+      </c>
+      <c r="B530" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="6">
+        <v>53</v>
+      </c>
+      <c r="B531" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="6">
+        <v>215</v>
+      </c>
+      <c r="B532" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="6">
+        <v>62</v>
+      </c>
+      <c r="B533" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="6">
+        <v>53</v>
+      </c>
+      <c r="B534" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="6">
+        <v>215</v>
+      </c>
+      <c r="B535" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="6">
+        <v>62</v>
+      </c>
+      <c r="B536" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="6">
+        <v>53</v>
+      </c>
+      <c r="B537" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="6">
+        <v>216</v>
+      </c>
+      <c r="B538" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="6">
+        <v>62</v>
+      </c>
+      <c r="B539" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="6">
+        <v>216</v>
+      </c>
+      <c r="B540" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="6">
+        <v>53</v>
+      </c>
+      <c r="B541" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="6">
+        <v>212</v>
+      </c>
+      <c r="B542" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="6">
+        <v>212</v>
+      </c>
+      <c r="B543" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="6">
+        <v>106</v>
+      </c>
+      <c r="B544" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="6">
+        <v>49</v>
+      </c>
+      <c r="B545" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="6">
+        <v>35</v>
+      </c>
+      <c r="B546" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="6">
+        <v>35</v>
+      </c>
+      <c r="B547" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="6">
+        <v>212</v>
+      </c>
+      <c r="B548" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="6">
+        <v>106</v>
+      </c>
+      <c r="B549" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="6">
+        <v>49</v>
+      </c>
+      <c r="B550" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="6">
+        <v>199</v>
+      </c>
+      <c r="B551" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="6">
+        <v>212</v>
+      </c>
+      <c r="B552" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="6">
+        <v>10</v>
+      </c>
+      <c r="B553" s="7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="6">
+        <v>64</v>
+      </c>
+      <c r="B554" s="7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="6">
+        <v>121</v>
+      </c>
+      <c r="B555" s="7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="6">
+        <v>121</v>
+      </c>
+      <c r="B556" s="7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="6">
+        <v>169</v>
+      </c>
+      <c r="B557" s="7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="6">
+        <v>169</v>
+      </c>
+      <c r="B558" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="6">
+        <v>220</v>
+      </c>
+      <c r="B559" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="6">
+        <v>221</v>
+      </c>
+      <c r="B560" s="7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="6">
+        <v>220</v>
+      </c>
+      <c r="B561" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="6">
+        <v>221</v>
+      </c>
+      <c r="B562" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="6">
+        <v>27</v>
+      </c>
+      <c r="B563" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="6">
+        <v>222</v>
+      </c>
+      <c r="B564" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="6">
+        <v>223</v>
+      </c>
+      <c r="B565" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="6">
+        <v>223</v>
+      </c>
+      <c r="B566" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="6">
+        <v>222</v>
+      </c>
+      <c r="B567" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="6">
+        <v>27</v>
+      </c>
+      <c r="B568" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="6">
+        <v>212</v>
+      </c>
+      <c r="B569" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="6">
+        <v>119</v>
+      </c>
+      <c r="B570" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="6">
+        <v>224</v>
+      </c>
+      <c r="B571" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="6">
+        <v>117</v>
+      </c>
+      <c r="B572" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="6">
+        <v>77</v>
+      </c>
+      <c r="B573" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="6">
+        <v>123</v>
+      </c>
+      <c r="B574" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="6">
+        <v>19</v>
+      </c>
+      <c r="B575" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="6">
+        <v>59</v>
+      </c>
+      <c r="B576" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="6">
+        <v>225</v>
+      </c>
+      <c r="B577" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="6">
+        <v>49</v>
+      </c>
+      <c r="B578" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="6">
+        <v>59</v>
+      </c>
+      <c r="B579" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="6">
+        <v>69</v>
+      </c>
+      <c r="B580" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="6">
+        <v>128</v>
+      </c>
+      <c r="B581" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="6">
+        <v>220</v>
+      </c>
+      <c r="B582" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="6">
+        <v>128</v>
+      </c>
+      <c r="B583" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="6">
+        <v>220</v>
+      </c>
+      <c r="B584" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="6">
+        <v>182</v>
+      </c>
+      <c r="B585" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="6">
+        <v>183</v>
+      </c>
+      <c r="B586" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="6">
+        <v>183</v>
+      </c>
+      <c r="B587" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="6">
+        <v>182</v>
+      </c>
+      <c r="B588" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="6">
+        <v>141</v>
+      </c>
+      <c r="B589" s="7">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Concepts_metafeatures.xlsx
+++ b/raw/Concepts_metafeatures.xlsx
@@ -11,10 +11,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>concept_id</t>
+    <t>x_Concepts_Metafeatures::concept_id</t>
   </si>
   <si>
-    <t>meta_feature__id</t>
+    <t>x_Concepts_Metafeatures::meta_feature__id</t>
   </si>
 </sst>
 </file>
@@ -99,134 +99,112 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B6" s="7">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B8" s="7">
-        <v>7</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B11" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>24</v>
-      </c>
-      <c r="B12" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>23</v>
-      </c>
-      <c r="B14" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6">
-        <v>23</v>
-      </c>
-      <c r="B15" s="7">
-        <v>8</v>
-      </c>
-    </row>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="6">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -234,7 +212,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -242,7 +220,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -250,204 +228,204 @@
         <v>10</v>
       </c>
       <c r="B22" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B23" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B28" s="7">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B29" s="7">
-        <v>15</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B30" s="7">
-        <v>14</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B31" s="7">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7">
-        <v>15</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B33" s="7">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B34" s="7">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B35" s="7">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B36" s="7">
-        <v>14</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B37" s="7">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B38" s="7">
-        <v>6</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B39" s="7">
-        <v>17</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B40" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B41" s="7">
-        <v>1</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B42" s="7">
-        <v>3</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B43" s="7">
-        <v>2</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B44" s="7">
-        <v>19</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B45" s="7">
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
         <v>11</v>
       </c>
-      <c r="B46" s="7">
-        <v>20</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B47" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -466,185 +444,164 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="6">
-        <v>74</v>
-      </c>
-      <c r="B50" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6">
-        <v>74</v>
-      </c>
-      <c r="B51" s="7">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="50"/>
+    <row r="51"/>
     <row r="52">
       <c r="A52" s="6">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="B52" s="7">
-        <v>26</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B53" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B54" s="7">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B55" s="7">
-        <v>28</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B56" s="7">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B57" s="7">
-        <v>31</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B58" s="7">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B59" s="7">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B60" s="7">
-        <v>35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B61" s="7">
-        <v>35</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B62" s="7">
-        <v>36</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B63" s="7">
-        <v>37</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B64" s="7">
-        <v>37</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B65" s="7">
-        <v>37</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B66" s="7">
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B67" s="7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="6">
-        <v>77</v>
-      </c>
-      <c r="B68" s="7">
-        <v>38</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68"/>
     <row r="69">
       <c r="A69" s="6">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B69" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B70" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B71" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B72" s="7">
         <v>44</v>
@@ -655,39 +612,39 @@
         <v>19</v>
       </c>
       <c r="B73" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B74" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B75" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B76" s="7">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B77" s="7">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78">
@@ -695,111 +652,91 @@
         <v>19</v>
       </c>
       <c r="B78" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="6">
-        <v>49</v>
-      </c>
-      <c r="B79" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="6">
-        <v>47</v>
-      </c>
-      <c r="B80" s="7">
-        <v>43</v>
-      </c>
-    </row>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80"/>
     <row r="81">
       <c r="A81" s="6">
-        <v>49</v>
-      </c>
-      <c r="B81" s="7">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B82" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>47</v>
-      </c>
-      <c r="B83" s="7">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B84" s="7">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B85" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B86" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B87" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B88" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B89" s="7">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B90" s="7">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B91" s="7">
-        <v>50</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -807,935 +744,886 @@
         <v>22</v>
       </c>
       <c r="B92" s="7">
-        <v>50</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B93" s="7">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B94" s="7">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B95" s="7">
-        <v>51</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B96" s="7">
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B97" s="7">
-        <v>52</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B98" s="7">
-        <v>55</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B99" s="7">
-        <v>55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B100" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B101" s="7">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B102" s="7">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B103" s="7">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B104" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B105" s="7">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B106" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B107" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B108" s="7">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B109" s="7">
-        <v>59</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B110" s="7">
-        <v>59</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B111" s="7">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B112" s="7">
-        <v>58</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="B113" s="7">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B114" s="7">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B115" s="7">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B116" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B117" s="7">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B118" s="7">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B119" s="7">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B120" s="7">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B121" s="7">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B122" s="7">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B123" s="7">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B124" s="7">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B125" s="7">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B126" s="7">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B127" s="7">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B128" s="7">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B129" s="7">
-        <v>67</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B130" s="7">
-        <v>68</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B131" s="7">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B132" s="7">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B133" s="7">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B134" s="7">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="B135" s="7">
-        <v>78</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B136" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="6">
-        <v>111</v>
-      </c>
-      <c r="B137" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="6">
-        <v>49</v>
-      </c>
-      <c r="B138" s="7">
-        <v>81</v>
-      </c>
-    </row>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="137"/>
+    <row r="138"/>
     <row r="139">
       <c r="A139" s="6">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B139" s="7">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B140" s="7">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B141" s="7">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B142" s="7">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="B143" s="7">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B144" s="7">
-        <v>82</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B145" s="7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="6">
-        <v>118</v>
-      </c>
-      <c r="B146" s="7">
-        <v>83</v>
-      </c>
-    </row>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146"/>
     <row r="147">
       <c r="A147" s="6">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B147" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B148" s="7">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B149" s="7">
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B150" s="7">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B151" s="7">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6">
+        <v>35</v>
+      </c>
+      <c r="B152" s="7">
         <v>59</v>
-      </c>
-      <c r="B152" s="7">
-        <v>86</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B153" s="7">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B154" s="7">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B155" s="7">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B156" s="7">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B157" s="7">
-        <v>88</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B158" s="7">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B159" s="7">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B160" s="7">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B161" s="7">
-        <v>89</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B162" s="7">
-        <v>89</v>
+        <v>201</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B163" s="7">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B164" s="7">
-        <v>90</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B165" s="7">
-        <v>90</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B166" s="7">
-        <v>91</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B167" s="7">
-        <v>91</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B168" s="7">
-        <v>91</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B169" s="7">
-        <v>91</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B170" s="7">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="B171" s="7">
-        <v>90</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="B172" s="7">
-        <v>92</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B173" s="7">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B174" s="7">
-        <v>93</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="B175" s="7">
-        <v>93</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="B176" s="7">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B177" s="7">
-        <v>95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="B178" s="7">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B179" s="7">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B180" s="7">
-        <v>96</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B181" s="7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="6">
-        <v>59</v>
-      </c>
-      <c r="B182" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="6">
-        <v>139</v>
-      </c>
-      <c r="B183" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="6">
-        <v>79</v>
-      </c>
-      <c r="B184" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="6">
-        <v>79</v>
-      </c>
-      <c r="B185" s="7">
-        <v>14</v>
-      </c>
-    </row>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
     <row r="186">
       <c r="A186" s="6">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B186" s="7">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B187" s="7">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="B188" s="7">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B189" s="7">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B190" s="7">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B191" s="7">
-        <v>101</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B192" s="7">
-        <v>101</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B193" s="7">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="B194" s="7">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B195" s="7">
-        <v>102</v>
+        <v>44</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B196" s="7">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B197" s="7">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B198" s="7">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B199" s="7">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B200" s="7">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B201" s="7">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B202" s="7">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B203" s="7">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B204" s="7">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B205" s="7">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="B206" s="7">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B207" s="7">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B208" s="7">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="209">
@@ -1743,15 +1631,15 @@
         <v>48</v>
       </c>
       <c r="B209" s="7">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B210" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="211">
@@ -1759,3033 +1647,3349 @@
         <v>48</v>
       </c>
       <c r="B211" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="B212" s="7">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B213" s="7">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B214" s="7">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B215" s="7">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B216" s="7">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B217" s="7">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B218" s="7">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B219" s="7">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B220" s="7">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="B221" s="7">
-        <v>114</v>
+        <v>43</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="B222" s="7">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="B223" s="7">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B224" s="7">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="B225" s="7">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B226" s="7">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B227" s="7">
-        <v>122</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B228" s="7">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B229" s="7">
-        <v>123</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B230" s="7">
-        <v>124</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B231" s="7">
-        <v>125</v>
+        <v>350</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B232" s="7">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B233" s="7">
-        <v>125</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B234" s="7">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B235" s="7">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B236" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="6">
-        <v>107</v>
-      </c>
-      <c r="B237" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="6">
-        <v>57</v>
-      </c>
-      <c r="B238" s="7">
-        <v>129</v>
-      </c>
-    </row>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237"/>
+    <row r="238"/>
     <row r="239">
       <c r="A239" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B239" s="7">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="B240" s="7">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B241" s="7">
-        <v>130</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B242" s="7">
-        <v>130</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="B243" s="7">
-        <v>130</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B244" s="7">
-        <v>131</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B245" s="7">
-        <v>132</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="B246" s="7">
-        <v>132</v>
+        <v>285</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B247" s="7">
-        <v>132</v>
+        <v>286</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="B248" s="7">
-        <v>132</v>
+        <v>287</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B249" s="7">
-        <v>133</v>
+        <v>288</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B250" s="7">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B251" s="7">
-        <v>133</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B252" s="7">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B253" s="7">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="B254" s="7">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B255" s="7">
-        <v>134</v>
+        <v>173</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B256" s="7">
-        <v>134</v>
+        <v>175</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B257" s="7">
-        <v>135</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B258" s="7">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B259" s="7">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B260" s="7">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B261" s="7">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B262" s="7">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B263" s="7">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B264" s="7">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B265" s="7">
-        <v>137</v>
+        <v>192</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B266" s="7">
-        <v>138</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B267" s="7">
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B268" s="7">
-        <v>138</v>
+        <v>271</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="B269" s="7">
-        <v>139</v>
+        <v>272</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="B270" s="7">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B271" s="7">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="6">
-        <v>22</v>
-      </c>
-      <c r="B272" s="7">
-        <v>142</v>
-      </c>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="272"/>
     <row r="273">
       <c r="A273" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B273" s="7">
-        <v>142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B274" s="7">
-        <v>141</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B275" s="7">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B276" s="7">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B277" s="7">
-        <v>143</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B278" s="7">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B279" s="7">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B280" s="7">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B281" s="7">
-        <v>144</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B282" s="7">
-        <v>145</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B283" s="7">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B284" s="7">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B285" s="7">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B286" s="7">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B287" s="7">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B288" s="7">
-        <v>148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B289" s="7">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B290" s="7">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B291" s="7">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B292" s="7">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B293" s="7">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B294" s="7">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B295" s="7">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="B296" s="7">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B297" s="7">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B298" s="7">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B299" s="7">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="B300" s="7">
-        <v>153</v>
+        <v>354</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B301" s="7">
-        <v>153</v>
+        <v>350</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B302" s="7">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B303" s="7">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B304" s="7">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B305" s="7">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="6">
-        <v>22</v>
-      </c>
-      <c r="B306" s="7">
-        <v>158</v>
-      </c>
-    </row>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="306"/>
     <row r="307">
       <c r="A307" s="6">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B307" s="7">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B308" s="7">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B309" s="7">
-        <v>159</v>
+        <v>283</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B310" s="7">
-        <v>160</v>
+        <v>284</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B311" s="7">
-        <v>161</v>
+        <v>285</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B312" s="7">
-        <v>162</v>
+        <v>286</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B313" s="7">
-        <v>163</v>
+        <v>287</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="B314" s="7">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="6">
-        <v>161</v>
-      </c>
-      <c r="B315" s="7">
-        <v>166</v>
-      </c>
-    </row>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="315"/>
     <row r="316">
       <c r="A316" s="6">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="B316" s="7">
-        <v>168</v>
+        <v>35</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B317" s="7">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="B318" s="7">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B319" s="7">
-        <v>167</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="B320" s="7">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="6">
-        <v>130</v>
-      </c>
-      <c r="B321" s="7">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="6">
-        <v>163</v>
-      </c>
-      <c r="B322" s="7">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="6">
-        <v>163</v>
-      </c>
-      <c r="B323" s="7">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="6">
-        <v>55</v>
-      </c>
-      <c r="B324" s="7">
-        <v>174</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
     <row r="325">
       <c r="A325" s="6">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B325" s="7">
-        <v>174</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B326" s="7">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B327" s="7">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B328" s="7">
-        <v>175</v>
+        <v>63</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B329" s="7">
-        <v>176</v>
+        <v>258</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B330" s="7">
-        <v>182</v>
+        <v>350</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B331" s="7">
-        <v>182</v>
+        <v>271</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="B332" s="7">
-        <v>181</v>
+        <v>272</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B333" s="7">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="6">
-        <v>55</v>
-      </c>
-      <c r="B334" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="6">
-        <v>1</v>
-      </c>
-      <c r="B335" s="7">
-        <v>180</v>
-      </c>
-    </row>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="334"/>
+    <row r="335"/>
     <row r="336">
       <c r="A336" s="6">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B336" s="7">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B337" s="7">
-        <v>179</v>
+        <v>28</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B338" s="7">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B339" s="7">
-        <v>178</v>
+        <v>31</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B340" s="7">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B341" s="7">
-        <v>177</v>
+        <v>37</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B342" s="7">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B343" s="7">
-        <v>184</v>
+        <v>132</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B344" s="7">
-        <v>185</v>
+        <v>133</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B345" s="7">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B346" s="7">
-        <v>186</v>
+        <v>135</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B347" s="7">
-        <v>186</v>
+        <v>136</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B348" s="7">
-        <v>190</v>
+        <v>137</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B349" s="7">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B350" s="7">
-        <v>189</v>
+        <v>273</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B351" s="7">
-        <v>189</v>
+        <v>274</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B352" s="7">
-        <v>188</v>
+        <v>275</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B353" s="7">
-        <v>188</v>
+        <v>276</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="B354" s="7">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B355" s="7">
-        <v>187</v>
+        <v>278</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B356" s="7">
-        <v>191</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B357" s="7">
-        <v>191</v>
+        <v>39</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B358" s="7">
-        <v>191</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
+        <v>79</v>
+      </c>
+      <c r="B359" s="7">
         <v>55</v>
-      </c>
-      <c r="B359" s="7">
-        <v>192</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B360" s="7">
-        <v>192</v>
+        <v>54</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="B361" s="7">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B362" s="7">
-        <v>193</v>
+        <v>89</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B363" s="7">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B364" s="7">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B365" s="7">
-        <v>197</v>
+        <v>44</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B366" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="6">
-        <v>35</v>
-      </c>
-      <c r="B367" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="6">
-        <v>175</v>
-      </c>
-      <c r="B368" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="6">
-        <v>176</v>
-      </c>
-      <c r="B369" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="6">
-        <v>16</v>
-      </c>
-      <c r="B370" s="7">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="6">
-        <v>35</v>
-      </c>
-      <c r="B371" s="7">
-        <v>201</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
     <row r="372">
       <c r="A372" s="6">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B372" s="7">
-        <v>201</v>
+        <v>270</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B373" s="7">
-        <v>201</v>
+        <v>269</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B374" s="7">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="6">
-        <v>176</v>
-      </c>
-      <c r="B375" s="7">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="6">
-        <v>35</v>
-      </c>
-      <c r="B376" s="7">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="6">
-        <v>44</v>
-      </c>
-      <c r="B377" s="7">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="6">
-        <v>16</v>
-      </c>
-      <c r="B378" s="7">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="6">
-        <v>35</v>
-      </c>
-      <c r="B379" s="7">
-        <v>203</v>
-      </c>
-    </row>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
     <row r="380">
       <c r="A380" s="6">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="B380" s="7">
-        <v>203</v>
+        <v>270</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B381" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="6">
-        <v>35</v>
-      </c>
-      <c r="B382" s="7">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="6">
-        <v>176</v>
-      </c>
-      <c r="B383" s="7">
-        <v>204</v>
-      </c>
-    </row>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="382"/>
+    <row r="383"/>
     <row r="384">
       <c r="A384" s="6">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B384" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B385" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B386" s="7">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B387" s="7">
-        <v>206</v>
+        <v>81</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B388" s="7">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="6">
-        <v>35</v>
-      </c>
-      <c r="B389" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="6">
-        <v>36</v>
-      </c>
-      <c r="B390" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="6">
-        <v>176</v>
-      </c>
-      <c r="B391" s="7">
-        <v>208</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
     <row r="392">
       <c r="A392" s="6">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B392" s="7">
-        <v>208</v>
+        <v>68</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B393" s="7">
-        <v>208</v>
+        <v>69</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B394" s="7">
-        <v>208</v>
+        <v>70</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="B395" s="7">
-        <v>209</v>
+        <v>71</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B396" s="7">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B397" s="7">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B398" s="7">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="B399" s="7">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B400" s="7">
-        <v>210</v>
+        <v>59</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B401" s="7">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B402" s="7">
-        <v>210</v>
+        <v>58</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B403" s="7">
-        <v>211</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="B404" s="7">
-        <v>212</v>
+        <v>61</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B405" s="7">
-        <v>223</v>
+        <v>62</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B406" s="7">
-        <v>19</v>
+        <v>321</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B407" s="7">
-        <v>224</v>
+        <v>322</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B408" s="7">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="B409" s="7">
-        <v>224</v>
+        <v>65</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="B410" s="7">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="B411" s="7">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="B412" s="7">
-        <v>226</v>
+        <v>67</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="B413" s="7">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="B414" s="7">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="B415" s="7">
-        <v>227</v>
+        <v>78</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B416" s="7">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="6">
-        <v>38</v>
-      </c>
-      <c r="B417" s="7">
-        <v>231</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="417"/>
     <row r="418">
       <c r="A418" s="6">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="B418" s="7">
-        <v>232</v>
+        <v>81</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="B419" s="7">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="6">
-        <v>200</v>
-      </c>
-      <c r="B420" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="6">
-        <v>201</v>
-      </c>
-      <c r="B421" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="6">
-        <v>200</v>
-      </c>
-      <c r="B422" s="7">
-        <v>237</v>
-      </c>
-    </row>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
     <row r="423">
       <c r="A423" s="6">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="B423" s="7">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="B424" s="7">
-        <v>239</v>
+        <v>356</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="B425" s="7">
-        <v>238</v>
+        <v>83</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B426" s="7">
-        <v>241</v>
+        <v>82</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B427" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="6">
-        <v>206</v>
-      </c>
-      <c r="B428" s="7">
-        <v>251</v>
-      </c>
-    </row>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="428"/>
     <row r="429">
       <c r="A429" s="6">
-        <v>206</v>
+        <v>121</v>
       </c>
       <c r="B429" s="7">
-        <v>250</v>
+        <v>86</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B430" s="7">
-        <v>249</v>
+        <v>87</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="6">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B431" s="7">
-        <v>249</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B432" s="7">
-        <v>248</v>
+        <v>91</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="6">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B433" s="7">
-        <v>248</v>
+        <v>121</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="B434" s="7">
-        <v>247</v>
+        <v>120</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="B435" s="7">
-        <v>246</v>
+        <v>366</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="B436" s="7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="6">
-        <v>205</v>
-      </c>
-      <c r="B437" s="7">
-        <v>244</v>
-      </c>
-    </row>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="437"/>
     <row r="438">
       <c r="A438" s="6">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B438" s="7">
-        <v>243</v>
+        <v>354</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B439" s="7">
-        <v>243</v>
+        <v>100</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B440" s="7">
-        <v>242</v>
+        <v>101</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B441" s="7">
-        <v>242</v>
+        <v>102</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="6">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B442" s="7">
-        <v>241</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="6">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B443" s="7">
-        <v>240</v>
+        <v>133</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="6">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B444" s="7">
-        <v>239</v>
+        <v>134</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="6">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B445" s="7">
-        <v>238</v>
+        <v>374</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="6">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B446" s="7">
-        <v>237</v>
+        <v>91</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="6">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="B447" s="7">
-        <v>236</v>
+        <v>90</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="6">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B448" s="7">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="6">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="B449" s="7">
-        <v>234</v>
+        <v>91</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="6">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B450" s="7">
-        <v>229</v>
+        <v>90</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="6">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B451" s="7">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="6">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B452" s="7">
-        <v>258</v>
+        <v>195</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="6">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B453" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="6">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B454" s="7">
-        <v>258</v>
+        <v>92</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="6">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B455" s="7">
-        <v>258</v>
+        <v>93</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="6">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="B456" s="7">
-        <v>261</v>
+        <v>169</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="6">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="B457" s="7">
-        <v>261</v>
+        <v>132</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="6">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="B458" s="7">
-        <v>262</v>
+        <v>133</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="6">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="B459" s="7">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="6">
-        <v>182</v>
-      </c>
-      <c r="B460" s="7">
-        <v>264</v>
-      </c>
-    </row>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="460"/>
     <row r="461">
       <c r="A461" s="6">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B461" s="7">
-        <v>264</v>
+        <v>196</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="6">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B462" s="7">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="6">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="B463" s="7">
-        <v>270</v>
+        <v>95</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="6">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="B464" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="6">
-        <v>33</v>
-      </c>
-      <c r="B465" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="6">
-        <v>95</v>
-      </c>
-      <c r="B466" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="6">
-        <v>88</v>
-      </c>
-      <c r="B467" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="6">
-        <v>10</v>
-      </c>
-      <c r="B468" s="7">
-        <v>273</v>
-      </c>
-    </row>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
     <row r="469">
       <c r="A469" s="6">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B469" s="7">
-        <v>273</v>
+        <v>96</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="6">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="B470" s="7">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="6">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B471" s="7">
-        <v>274</v>
+        <v>99</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="6">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="B472" s="7">
-        <v>274</v>
+        <v>98</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="6">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B473" s="7">
-        <v>274</v>
+        <v>100</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="6">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="B474" s="7">
-        <v>275</v>
+        <v>101</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="6">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B475" s="7">
-        <v>275</v>
+        <v>102</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="6">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B476" s="7">
-        <v>275</v>
+        <v>110</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="6">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B477" s="7">
-        <v>276</v>
+        <v>109</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="6">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B478" s="7">
-        <v>276</v>
+        <v>108</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B479" s="7">
-        <v>276</v>
+        <v>107</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="6">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B480" s="7">
-        <v>277</v>
+        <v>106</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="6">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="B481" s="7">
-        <v>277</v>
+        <v>105</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="6">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B482" s="7">
-        <v>277</v>
+        <v>104</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="6">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B483" s="7">
-        <v>278</v>
+        <v>103</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="6">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="B484" s="7">
-        <v>278</v>
+        <v>26</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="6">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="B485" s="7">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="6">
-        <v>35</v>
-      </c>
-      <c r="B486" s="7">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="6">
-        <v>16</v>
-      </c>
-      <c r="B487" s="7">
-        <v>279</v>
-      </c>
-    </row>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="486"/>
+    <row r="487"/>
     <row r="488">
       <c r="A488" s="6">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="B488" s="7">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="6">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="B489" s="7">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="6">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="B490" s="7">
-        <v>331</v>
+        <v>249</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="6">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B491" s="7">
-        <v>374</v>
+        <v>248</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="6">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B492" s="7">
-        <v>374</v>
+        <v>243</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="6">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="B493" s="7">
-        <v>374</v>
+        <v>242</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="6">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="B494" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="6">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="B495" s="7">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="6">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="B496" s="7">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="6">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="B497" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="6">
-        <v>212</v>
-      </c>
-      <c r="B498" s="7">
-        <v>66</v>
-      </c>
-    </row>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="498"/>
     <row r="499">
       <c r="A499" s="6">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B499" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="6">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B500" s="7">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="6">
-        <v>212</v>
-      </c>
-      <c r="B501" s="7">
-        <v>148</v>
-      </c>
-    </row>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="501"/>
     <row r="502">
       <c r="A502" s="6">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B502" s="7">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="6">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B503" s="7">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="6">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B504" s="7">
-        <v>160</v>
+        <v>210</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="6">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="B505" s="7">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="6">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="B506" s="7">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="6">
-        <v>213</v>
-      </c>
-      <c r="B507" s="7">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="6">
-        <v>213</v>
-      </c>
-      <c r="B508" s="7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="6">
-        <v>212</v>
-      </c>
-      <c r="B509" s="7">
-        <v>163</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
     <row r="510">
       <c r="A510" s="6">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="B510" s="7">
-        <v>216</v>
+        <v>152</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="6">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B511" s="7">
-        <v>222</v>
+        <v>151</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="6">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="B512" s="7">
-        <v>222</v>
+        <v>154</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="6">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B513" s="7">
-        <v>222</v>
+        <v>153</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="6">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B514" s="7">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="6">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B515" s="7">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="6">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B516" s="7">
-        <v>269</v>
+        <v>164</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="6">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="B517" s="7">
-        <v>271</v>
+        <v>166</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="6">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="B518" s="7">
-        <v>271</v>
+        <v>168</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="6">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B519" s="7">
-        <v>271</v>
+        <v>167</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="6">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B520" s="7">
-        <v>272</v>
+        <v>168</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="6">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B521" s="7">
-        <v>272</v>
+        <v>167</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="6">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B522" s="7">
-        <v>272</v>
+        <v>169</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="6">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="B523" s="7">
-        <v>283</v>
+        <v>171</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="6">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="B524" s="7">
-        <v>283</v>
+        <v>172</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="6">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B525" s="7">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="6">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B526" s="7">
-        <v>283</v>
+        <v>183</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="6">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B527" s="7">
-        <v>284</v>
+        <v>184</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="6">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B528" s="7">
-        <v>284</v>
+        <v>185</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="6">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B529" s="7">
-        <v>284</v>
+        <v>186</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="6">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B530" s="7">
-        <v>285</v>
+        <v>190</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="6">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B531" s="7">
-        <v>285</v>
+        <v>189</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="6">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="B532" s="7">
-        <v>285</v>
+        <v>188</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="6">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="B533" s="7">
-        <v>286</v>
+        <v>187</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="6">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B534" s="7">
-        <v>286</v>
+        <v>185</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="6">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B535" s="7">
-        <v>286</v>
+        <v>186</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="6">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="B536" s="7">
-        <v>287</v>
+        <v>188</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="6">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B537" s="7">
-        <v>287</v>
+        <v>187</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="6">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B538" s="7">
-        <v>287</v>
+        <v>190</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="6">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="B539" s="7">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="6">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="B540" s="7">
-        <v>288</v>
+        <v>193</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="6">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B541" s="7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="6">
-        <v>212</v>
-      </c>
-      <c r="B542" s="7">
-        <v>288</v>
-      </c>
-    </row>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="542"/>
     <row r="543">
       <c r="A543" s="6">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B543" s="7">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="6">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="B544" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="6">
-        <v>49</v>
-      </c>
-      <c r="B545" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="6">
-        <v>35</v>
-      </c>
-      <c r="B546" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="6">
-        <v>35</v>
-      </c>
-      <c r="B547" s="7">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="6">
-        <v>212</v>
-      </c>
-      <c r="B548" s="7">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="6">
-        <v>106</v>
-      </c>
-      <c r="B549" s="7">
-        <v>322</v>
-      </c>
-    </row>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
     <row r="550">
       <c r="A550" s="6">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="B550" s="7">
-        <v>322</v>
+        <v>200</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="6">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B551" s="7">
-        <v>337</v>
+        <v>203</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="6">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="B552" s="7">
-        <v>337</v>
+        <v>200</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="6">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="B553" s="7">
-        <v>368</v>
+        <v>201</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="6">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="B554" s="7">
-        <v>368</v>
+        <v>202</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="6">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B555" s="7">
-        <v>366</v>
+        <v>204</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="6">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="B556" s="7">
-        <v>365</v>
+        <v>208</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="6">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B557" s="7">
-        <v>364</v>
+        <v>209</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="6">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B558" s="7">
-        <v>363</v>
+        <v>210</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="6">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="B559" s="7">
-        <v>362</v>
+        <v>211</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="6">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="B560" s="7">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="6">
-        <v>220</v>
-      </c>
-      <c r="B561" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="6">
-        <v>221</v>
-      </c>
-      <c r="B562" s="7">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="6">
-        <v>27</v>
-      </c>
-      <c r="B563" s="7">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="6">
-        <v>222</v>
-      </c>
-      <c r="B564" s="7">
-        <v>358</v>
-      </c>
-    </row>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
     <row r="565">
       <c r="A565" s="6">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B565" s="7">
-        <v>358</v>
+        <v>264</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="6">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B566" s="7">
-        <v>357</v>
+        <v>24</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="6">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B567" s="7">
-        <v>357</v>
+        <v>26</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="6">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="B568" s="7">
-        <v>357</v>
+        <v>261</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="6">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B569" s="7">
-        <v>357</v>
+        <v>262</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="6">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B570" s="7">
-        <v>356</v>
+        <v>25</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="6">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="B571" s="7">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="6">
-        <v>117</v>
-      </c>
-      <c r="B572" s="7">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="6">
-        <v>77</v>
-      </c>
-      <c r="B573" s="7">
-        <v>354</v>
-      </c>
-    </row>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="572"/>
+    <row r="573"/>
     <row r="574">
       <c r="A574" s="6">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B574" s="7">
-        <v>354</v>
+        <v>261</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="6">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B575" s="7">
-        <v>354</v>
+        <v>262</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="6">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="B576" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="6">
-        <v>225</v>
-      </c>
-      <c r="B577" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="6">
-        <v>49</v>
-      </c>
-      <c r="B578" s="7">
-        <v>350</v>
-      </c>
-    </row>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="577"/>
+    <row r="578"/>
     <row r="579">
       <c r="A579" s="6">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="B579" s="7">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="6">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B580" s="7">
-        <v>350</v>
+        <v>224</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="6">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B581" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="6">
-        <v>220</v>
-      </c>
-      <c r="B582" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="6">
-        <v>128</v>
-      </c>
-      <c r="B583" s="7">
-        <v>119</v>
-      </c>
-    </row>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="582"/>
+    <row r="583"/>
     <row r="584">
       <c r="A584" s="6">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B584" s="7">
-        <v>119</v>
+        <v>224</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="6">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B585" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="6">
-        <v>183</v>
-      </c>
-      <c r="B586" s="7">
-        <v>25</v>
-      </c>
-    </row>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="586"/>
     <row r="587">
       <c r="A587" s="6">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B587" s="7">
-        <v>26</v>
+        <v>226</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="6">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B588" s="7">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="6">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="B589" s="7">
-        <v>26</v>
-      </c>
-    </row>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="6">
+        <v>196</v>
+      </c>
+      <c r="B590" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="6">
+        <v>197</v>
+      </c>
+      <c r="B591" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="6">
+        <v>197</v>
+      </c>
+      <c r="B592" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="6">
+        <v>198</v>
+      </c>
+      <c r="B593" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="6">
+        <v>198</v>
+      </c>
+      <c r="B594" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="6">
+        <v>199</v>
+      </c>
+      <c r="B595" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="6">
+        <v>200</v>
+      </c>
+      <c r="B596" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="6">
+        <v>200</v>
+      </c>
+      <c r="B597" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="6">
+        <v>201</v>
+      </c>
+      <c r="B598" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="6">
+        <v>201</v>
+      </c>
+      <c r="B599" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="600"/>
+    <row r="601">
+      <c r="A601" s="6">
+        <v>203</v>
+      </c>
+      <c r="B601" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="6">
+        <v>203</v>
+      </c>
+      <c r="B602" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="603"/>
+    <row r="604">
+      <c r="A604" s="6">
+        <v>205</v>
+      </c>
+      <c r="B604" s="7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="6">
+        <v>205</v>
+      </c>
+      <c r="B605" s="7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="6">
+        <v>206</v>
+      </c>
+      <c r="B606" s="7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="6">
+        <v>206</v>
+      </c>
+      <c r="B607" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="6">
+        <v>207</v>
+      </c>
+      <c r="B608" s="7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="6">
+        <v>207</v>
+      </c>
+      <c r="B609" s="7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="6">
+        <v>208</v>
+      </c>
+      <c r="B610" s="7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="6">
+        <v>208</v>
+      </c>
+      <c r="B611" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="6">
+        <v>208</v>
+      </c>
+      <c r="B612" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="6">
+        <v>208</v>
+      </c>
+      <c r="B613" s="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="6">
+        <v>208</v>
+      </c>
+      <c r="B614" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="6">
+        <v>208</v>
+      </c>
+      <c r="B615" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="6">
+        <v>209</v>
+      </c>
+      <c r="B616" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="6">
+        <v>209</v>
+      </c>
+      <c r="B617" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="6">
+        <v>209</v>
+      </c>
+      <c r="B618" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="6">
+        <v>210</v>
+      </c>
+      <c r="B619" s="7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="620"/>
+    <row r="621">
+      <c r="A621" s="6">
+        <v>212</v>
+      </c>
+      <c r="B621" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="6">
+        <v>212</v>
+      </c>
+      <c r="B622" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="6">
+        <v>212</v>
+      </c>
+      <c r="B623" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="6">
+        <v>212</v>
+      </c>
+      <c r="B624" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="6">
+        <v>212</v>
+      </c>
+      <c r="B625" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="6">
+        <v>212</v>
+      </c>
+      <c r="B626" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="6">
+        <v>212</v>
+      </c>
+      <c r="B627" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="6">
+        <v>212</v>
+      </c>
+      <c r="B628" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="6">
+        <v>212</v>
+      </c>
+      <c r="B629" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="6">
+        <v>212</v>
+      </c>
+      <c r="B630" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="6">
+        <v>212</v>
+      </c>
+      <c r="B631" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="6">
+        <v>212</v>
+      </c>
+      <c r="B632" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="6">
+        <v>212</v>
+      </c>
+      <c r="B633" s="7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="6">
+        <v>212</v>
+      </c>
+      <c r="B634" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="6">
+        <v>212</v>
+      </c>
+      <c r="B635" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="6">
+        <v>212</v>
+      </c>
+      <c r="B636" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="6">
+        <v>212</v>
+      </c>
+      <c r="B637" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="6">
+        <v>212</v>
+      </c>
+      <c r="B638" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="6">
+        <v>212</v>
+      </c>
+      <c r="B639" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="6">
+        <v>212</v>
+      </c>
+      <c r="B640" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="6">
+        <v>212</v>
+      </c>
+      <c r="B641" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="6">
+        <v>212</v>
+      </c>
+      <c r="B642" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="6">
+        <v>212</v>
+      </c>
+      <c r="B643" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="6">
+        <v>212</v>
+      </c>
+      <c r="B644" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="6">
+        <v>212</v>
+      </c>
+      <c r="B645" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="6">
+        <v>213</v>
+      </c>
+      <c r="B646" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="6">
+        <v>213</v>
+      </c>
+      <c r="B647" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="6">
+        <v>213</v>
+      </c>
+      <c r="B648" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="6">
+        <v>213</v>
+      </c>
+      <c r="B649" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="6">
+        <v>214</v>
+      </c>
+      <c r="B650" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="6">
+        <v>214</v>
+      </c>
+      <c r="B651" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="6">
+        <v>215</v>
+      </c>
+      <c r="B652" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="6">
+        <v>215</v>
+      </c>
+      <c r="B653" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="6">
+        <v>216</v>
+      </c>
+      <c r="B654" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="6">
+        <v>216</v>
+      </c>
+      <c r="B655" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659">
+      <c r="A659" s="6">
+        <v>220</v>
+      </c>
+      <c r="B659" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="6">
+        <v>220</v>
+      </c>
+      <c r="B660" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="6">
+        <v>220</v>
+      </c>
+      <c r="B661" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="6">
+        <v>220</v>
+      </c>
+      <c r="B662" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="6">
+        <v>221</v>
+      </c>
+      <c r="B663" s="7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="6">
+        <v>221</v>
+      </c>
+      <c r="B664" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="6">
+        <v>222</v>
+      </c>
+      <c r="B665" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="6">
+        <v>222</v>
+      </c>
+      <c r="B666" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="6">
+        <v>223</v>
+      </c>
+      <c r="B667" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="6">
+        <v>223</v>
+      </c>
+      <c r="B668" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="6">
+        <v>224</v>
+      </c>
+      <c r="B669" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="6">
+        <v>225</v>
+      </c>
+      <c r="B670" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
   </sheetData>
 </worksheet>
 </file>
--- a/raw/Concepts_metafeatures.xlsx
+++ b/raw/Concepts_metafeatures.xlsx
@@ -11,10 +11,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>x_Concepts_Metafeatures::concept_id</t>
+    <t>concept_id</t>
   </si>
   <si>
-    <t>x_Concepts_Metafeatures::meta_feature__id</t>
+    <t>meta_feature__id</t>
   </si>
 </sst>
 </file>
@@ -99,112 +99,134 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>174</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7" s="7">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>179</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7">
-        <v>178</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6">
+        <v>23</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="6">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7">
         <v>10</v>
-      </c>
-      <c r="B17" s="7">
-        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -212,7 +234,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -220,7 +242,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -228,204 +250,204 @@
         <v>10</v>
       </c>
       <c r="B22" s="7">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B27" s="7">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B28" s="7">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7">
-        <v>152</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B30" s="7">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7">
-        <v>153</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B33" s="7">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B34" s="7">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B35" s="7">
-        <v>159</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B36" s="7">
-        <v>208</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B37" s="7">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7">
-        <v>210</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B39" s="7">
-        <v>273</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B40" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B41" s="7">
-        <v>275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B42" s="7">
-        <v>276</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B43" s="7">
-        <v>277</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B44" s="7">
-        <v>278</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
-        <v>10</v>
-      </c>
-      <c r="B45" s="7">
-        <v>368</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
         <v>11</v>
       </c>
+      <c r="B46" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B47" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
@@ -444,159 +466,180 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50"/>
-    <row r="51"/>
+    <row r="50">
+      <c r="A50" s="6">
+        <v>74</v>
+      </c>
+      <c r="B50" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6">
+        <v>74</v>
+      </c>
+      <c r="B51" s="7">
+        <v>26</v>
+      </c>
+    </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B52" s="7">
-        <v>222</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B53" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B54" s="7">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B55" s="7">
-        <v>142</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7">
-        <v>143</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B57" s="7">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B58" s="7">
-        <v>145</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B59" s="7">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B60" s="7">
-        <v>200</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B61" s="7">
-        <v>201</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B62" s="7">
-        <v>202</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B63" s="7">
-        <v>203</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B64" s="7">
-        <v>204</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B65" s="7">
-        <v>279</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B66" s="7">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B67" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7">
+        <v>39</v>
+      </c>
+    </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B69" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B70" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B71" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72">
@@ -609,34 +652,34 @@
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B73" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B74" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B75" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B76" s="7">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
@@ -644,88 +687,108 @@
         <v>19</v>
       </c>
       <c r="B77" s="7">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B78" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6">
+        <v>47</v>
+      </c>
+      <c r="B79" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6">
+        <v>49</v>
+      </c>
+      <c r="B80" s="7">
+        <v>42</v>
+      </c>
+    </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B81" s="7">
+        <v>42</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B82" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="7">
+        <v>42</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B84" s="7">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B85" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B86" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B87" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B88" s="7">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B89" s="7">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="B90" s="7">
         <v>50</v>
@@ -736,886 +799,935 @@
         <v>22</v>
       </c>
       <c r="B91" s="7">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B92" s="7">
-        <v>141</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B93" s="7">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B94" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B95" s="7">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B96" s="7">
-        <v>148</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B97" s="7">
-        <v>157</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B98" s="7">
-        <v>158</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B99" s="7">
-        <v>159</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B100" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B101" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B102" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B103" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B104" s="7">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B105" s="7">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B106" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B107" s="7">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B108" s="7">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B109" s="7">
-        <v>141</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B110" s="7">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B111" s="7">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B112" s="7">
-        <v>147</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B113" s="7">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B114" s="7">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B115" s="7">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B116" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B117" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B118" s="7">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B119" s="7">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B120" s="7">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="B121" s="7">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B122" s="7">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B123" s="7">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B124" s="7">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B125" s="7">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B126" s="7">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B127" s="7">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B128" s="7">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B129" s="7">
-        <v>223</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B130" s="7">
-        <v>224</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B131" s="7">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B132" s="7">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B133" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B134" s="7">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B135" s="7">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B136" s="7">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="137"/>
-    <row r="138"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6">
+        <v>49</v>
+      </c>
+      <c r="B137" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6">
+        <v>49</v>
+      </c>
+      <c r="B138" s="7">
+        <v>80</v>
+      </c>
+    </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B139" s="7">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B140" s="7">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B141" s="7">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B142" s="7">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B143" s="7">
-        <v>222</v>
+        <v>82</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B144" s="7">
-        <v>270</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B145" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6">
+        <v>118</v>
+      </c>
+      <c r="B146" s="7">
+        <v>82</v>
+      </c>
+    </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B147" s="7">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B148" s="7">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B149" s="7">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B150" s="7">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B151" s="7">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B152" s="7">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B153" s="7">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B154" s="7">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B155" s="7">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="6">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B156" s="7">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B157" s="7">
-        <v>160</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B158" s="7">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B159" s="7">
-        <v>162</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B160" s="7">
-        <v>163</v>
+        <v>89</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B161" s="7">
-        <v>200</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="6">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B162" s="7">
-        <v>201</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B163" s="7">
-        <v>202</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="6">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B164" s="7">
-        <v>203</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B165" s="7">
-        <v>204</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="6">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B166" s="7">
-        <v>205</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="6">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B167" s="7">
-        <v>206</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="6">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B168" s="7">
-        <v>207</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="6">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="B169" s="7">
-        <v>279</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="6">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B170" s="7">
-        <v>280</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="6">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="B171" s="7">
-        <v>321</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="6">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B172" s="7">
-        <v>322</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="6">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B173" s="7">
-        <v>205</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="6">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="B174" s="7">
-        <v>206</v>
+        <v>93</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="6">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="B175" s="7">
-        <v>207</v>
+        <v>95</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="6">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B176" s="7">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="6">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="B177" s="7">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="6">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B178" s="7">
-        <v>156</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="6">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B179" s="7">
-        <v>155</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="6">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B180" s="7">
-        <v>230</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="6">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B181" s="7">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="6">
+        <v>139</v>
+      </c>
+      <c r="B182" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6">
+        <v>79</v>
+      </c>
+      <c r="B183" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="6">
+        <v>79</v>
+      </c>
+      <c r="B184" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6">
+        <v>140</v>
+      </c>
+      <c r="B185" s="7">
+        <v>99</v>
+      </c>
+    </row>
     <row r="186">
       <c r="A186" s="6">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B186" s="7">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="6">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B187" s="7">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="6">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B188" s="7">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="6">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="B189" s="7">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="6">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B190" s="7">
-        <v>201</v>
+        <v>101</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="6">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B191" s="7">
-        <v>202</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="6">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B192" s="7">
-        <v>204</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="6">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B193" s="7">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="6">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B194" s="7">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="6">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="B195" s="7">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B196" s="7">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B197" s="7">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B198" s="7">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B199" s="7">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B200" s="7">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B201" s="7">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B202" s="7">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B203" s="7">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B204" s="7">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B205" s="7">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B206" s="7">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="6">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B207" s="7">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208">
@@ -1623,15 +1735,15 @@
         <v>48</v>
       </c>
       <c r="B208" s="7">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B209" s="7">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="210">
@@ -1639,1708 +1751,1932 @@
         <v>48</v>
       </c>
       <c r="B210" s="7">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="6">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B211" s="7">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="6">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B212" s="7">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B213" s="7">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="6">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B214" s="7">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="6">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B215" s="7">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B216" s="7">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B217" s="7">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="6">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B218" s="7">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="6">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B219" s="7">
-        <v>138</v>
+        <v>114</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="6">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="B220" s="7">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="6">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B221" s="7">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="6">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="B222" s="7">
-        <v>42</v>
+        <v>116</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="6">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B223" s="7">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="6">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="B224" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B225" s="7">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B226" s="7">
-        <v>63</v>
+        <v>122</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="6">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B227" s="7">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B228" s="7">
-        <v>80</v>
+        <v>123</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B229" s="7">
-        <v>321</v>
+        <v>124</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B230" s="7">
-        <v>322</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="6">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="B231" s="7">
-        <v>350</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B232" s="7">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B233" s="7">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="6">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B234" s="7">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B235" s="7">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="6">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B236" s="7">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="237"/>
-    <row r="238"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6">
+        <v>57</v>
+      </c>
+      <c r="B237" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6">
+        <v>54</v>
+      </c>
+      <c r="B238" s="7">
+        <v>129</v>
+      </c>
+    </row>
     <row r="239">
       <c r="A239" s="6">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B239" s="7">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="6">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B240" s="7">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B241" s="7">
-        <v>276</v>
+        <v>130</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="6">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="B242" s="7">
-        <v>277</v>
+        <v>130</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="6">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B243" s="7">
-        <v>278</v>
+        <v>131</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="6">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B244" s="7">
-        <v>283</v>
+        <v>132</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="6">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="B245" s="7">
-        <v>284</v>
+        <v>132</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B246" s="7">
-        <v>285</v>
+        <v>132</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="6">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B247" s="7">
-        <v>286</v>
+        <v>132</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="6">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B248" s="7">
-        <v>287</v>
+        <v>133</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="6">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B249" s="7">
-        <v>288</v>
+        <v>133</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="6">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B250" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="6">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B251" s="7">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="6">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B252" s="7">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="6">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="B253" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B254" s="7">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="6">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="B255" s="7">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B256" s="7">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B257" s="7">
-        <v>176</v>
+        <v>135</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="6">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B258" s="7">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B259" s="7">
-        <v>181</v>
+        <v>136</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B260" s="7">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="6">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B261" s="7">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B262" s="7">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="6">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B263" s="7">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="6">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B264" s="7">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="6">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B265" s="7">
-        <v>192</v>
+        <v>138</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="6">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B266" s="7">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="6">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B267" s="7">
-        <v>1</v>
+        <v>138</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="6">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="B268" s="7">
-        <v>271</v>
+        <v>139</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="6">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="B269" s="7">
-        <v>272</v>
+        <v>140</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="6">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B270" s="7">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="6">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B271" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="272"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="6">
+        <v>16</v>
+      </c>
+      <c r="B272" s="7">
+        <v>142</v>
+      </c>
+    </row>
     <row r="273">
       <c r="A273" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B273" s="7">
-        <v>45</v>
+        <v>141</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B274" s="7">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B275" s="7">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B276" s="7">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B277" s="7">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B278" s="7">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B279" s="7">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B280" s="7">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="6">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B281" s="7">
-        <v>91</v>
+        <v>145</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B282" s="7">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="6">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B283" s="7">
-        <v>93</v>
+        <v>146</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="6">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="B284" s="7">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B285" s="7">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B286" s="7">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B287" s="7">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B288" s="7">
-        <v>100</v>
+        <v>148</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B289" s="7">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="6">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B290" s="7">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="6">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B291" s="7">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="6">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B292" s="7">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="6">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B293" s="7">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B294" s="7">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="6">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="B295" s="7">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B296" s="7">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="6">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B297" s="7">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B298" s="7">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="6">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="B299" s="7">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="6">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B300" s="7">
-        <v>354</v>
+        <v>153</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="6">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B301" s="7">
-        <v>350</v>
+        <v>156</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="6">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B302" s="7">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="6">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B303" s="7">
-        <v>45</v>
+        <v>157</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B304" s="7">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="6">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B305" s="7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="306"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6">
+        <v>10</v>
+      </c>
+      <c r="B306" s="7">
+        <v>158</v>
+      </c>
+    </row>
     <row r="307">
       <c r="A307" s="6">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B307" s="7">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="6">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B308" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B309" s="7">
-        <v>283</v>
+        <v>160</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B310" s="7">
-        <v>284</v>
+        <v>161</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B311" s="7">
-        <v>285</v>
+        <v>162</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="6">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B312" s="7">
-        <v>286</v>
+        <v>163</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="6">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B313" s="7">
-        <v>287</v>
+        <v>164</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="6">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B314" s="7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="315"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6">
+        <v>161</v>
+      </c>
+      <c r="B315" s="7">
+        <v>168</v>
+      </c>
+    </row>
     <row r="316">
       <c r="A316" s="6">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="B316" s="7">
-        <v>35</v>
+        <v>168</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="6">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B317" s="7">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="6">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="B318" s="7">
-        <v>192</v>
+        <v>167</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="6">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="B319" s="7">
-        <v>368</v>
+        <v>169</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="6">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B320" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6">
+        <v>163</v>
+      </c>
+      <c r="B321" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6">
+        <v>163</v>
+      </c>
+      <c r="B322" s="7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6">
+        <v>55</v>
+      </c>
+      <c r="B323" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="6">
+        <v>1</v>
+      </c>
+      <c r="B324" s="7">
+        <v>174</v>
+      </c>
+    </row>
     <row r="325">
       <c r="A325" s="6">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B325" s="7">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="6">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B326" s="7">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="6">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B327" s="7">
-        <v>62</v>
+        <v>175</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="6">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B328" s="7">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="6">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B329" s="7">
-        <v>258</v>
+        <v>182</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="6">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B330" s="7">
-        <v>350</v>
+        <v>182</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="6">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B331" s="7">
-        <v>271</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="6">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B332" s="7">
-        <v>272</v>
+        <v>181</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="6">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B333" s="7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="334"/>
-    <row r="335"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="6">
+        <v>1</v>
+      </c>
+      <c r="B334" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="6">
+        <v>1</v>
+      </c>
+      <c r="B335" s="7">
+        <v>179</v>
+      </c>
+    </row>
     <row r="336">
       <c r="A336" s="6">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B336" s="7">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="6">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B337" s="7">
-        <v>28</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="6">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B338" s="7">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="6">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B339" s="7">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="6">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B340" s="7">
-        <v>32</v>
+        <v>177</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B341" s="7">
-        <v>37</v>
+        <v>183</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B342" s="7">
-        <v>38</v>
+        <v>184</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B343" s="7">
-        <v>132</v>
+        <v>185</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="6">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B344" s="7">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="6">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B345" s="7">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B346" s="7">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B347" s="7">
-        <v>136</v>
+        <v>190</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="6">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B348" s="7">
-        <v>137</v>
+        <v>190</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B349" s="7">
-        <v>138</v>
+        <v>189</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="6">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B350" s="7">
-        <v>273</v>
+        <v>189</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B351" s="7">
-        <v>274</v>
+        <v>188</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="6">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B352" s="7">
-        <v>275</v>
+        <v>188</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="6">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B353" s="7">
-        <v>276</v>
+        <v>187</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="6">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B354" s="7">
-        <v>277</v>
+        <v>187</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="6">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B355" s="7">
-        <v>278</v>
+        <v>191</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="6">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B356" s="7">
-        <v>354</v>
+        <v>191</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="6">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B357" s="7">
-        <v>39</v>
+        <v>191</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="6">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B358" s="7">
-        <v>6</v>
+        <v>192</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="6">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B359" s="7">
-        <v>55</v>
+        <v>192</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="6">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B360" s="7">
-        <v>54</v>
+        <v>192</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="6">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B361" s="7">
-        <v>88</v>
+        <v>193</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="6">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B362" s="7">
-        <v>89</v>
+        <v>194</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="6">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B363" s="7">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="6">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B364" s="7">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="6">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B365" s="7">
-        <v>44</v>
+        <v>200</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="6">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B366" s="7">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="6">
+        <v>175</v>
+      </c>
+      <c r="B367" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="6">
+        <v>176</v>
+      </c>
+      <c r="B368" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="6">
+        <v>16</v>
+      </c>
+      <c r="B369" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="6">
+        <v>35</v>
+      </c>
+      <c r="B370" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="6">
+        <v>44</v>
+      </c>
+      <c r="B371" s="7">
+        <v>201</v>
+      </c>
+    </row>
     <row r="372">
       <c r="A372" s="6">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B372" s="7">
-        <v>270</v>
+        <v>201</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="6">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B373" s="7">
-        <v>269</v>
+        <v>202</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="6">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="B374" s="7">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="6">
+        <v>35</v>
+      </c>
+      <c r="B375" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="6">
+        <v>44</v>
+      </c>
+      <c r="B376" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="6">
+        <v>16</v>
+      </c>
+      <c r="B377" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="6">
+        <v>35</v>
+      </c>
+      <c r="B378" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="6">
+        <v>175</v>
+      </c>
+      <c r="B379" s="7">
+        <v>203</v>
+      </c>
+    </row>
     <row r="380">
       <c r="A380" s="6">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B380" s="7">
-        <v>270</v>
+        <v>204</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="6">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B381" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="382"/>
-    <row r="383"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="6">
+        <v>176</v>
+      </c>
+      <c r="B382" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="6">
+        <v>44</v>
+      </c>
+      <c r="B383" s="7">
+        <v>204</v>
+      </c>
+    </row>
     <row r="384">
       <c r="A384" s="6">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B384" s="7">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="6">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B385" s="7">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="6">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B386" s="7">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="6">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B387" s="7">
-        <v>81</v>
+        <v>206</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="6">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B388" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="6">
+        <v>36</v>
+      </c>
+      <c r="B389" s="7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="6">
+        <v>176</v>
+      </c>
+      <c r="B390" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="6">
+        <v>154</v>
+      </c>
+      <c r="B391" s="7">
+        <v>208</v>
+      </c>
+    </row>
     <row r="392">
       <c r="A392" s="6">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B392" s="7">
-        <v>68</v>
+        <v>208</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="6">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B393" s="7">
-        <v>69</v>
+        <v>208</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="6">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B394" s="7">
-        <v>70</v>
+        <v>209</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="6">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B395" s="7">
-        <v>71</v>
+        <v>209</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="6">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B396" s="7">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="6">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B397" s="7">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="6">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="B398" s="7">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="6">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B399" s="7">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="6">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B400" s="7">
-        <v>59</v>
+        <v>210</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="6">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B401" s="7">
-        <v>57</v>
+        <v>210</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="6">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="B402" s="7">
-        <v>58</v>
+        <v>211</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="6">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="B403" s="7">
-        <v>60</v>
+        <v>212</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="6">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B404" s="7">
-        <v>61</v>
+        <v>223</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="6">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="B405" s="7">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="6">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="B406" s="7">
-        <v>321</v>
+        <v>224</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="6">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B407" s="7">
-        <v>322</v>
+        <v>224</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="6">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B408" s="7">
-        <v>64</v>
+        <v>224</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="6">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B409" s="7">
-        <v>65</v>
+        <v>223</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="6">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="B410" s="7">
-        <v>66</v>
+        <v>223</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="6">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="B411" s="7">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="6">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="B412" s="7">
-        <v>67</v>
+        <v>226</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="6">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="B413" s="7">
-        <v>78</v>
+        <v>227</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="6">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="B414" s="7">
-        <v>79</v>
+        <v>227</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="6">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B415" s="7">
-        <v>78</v>
+        <v>230</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="6">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="B416" s="7">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="417"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="6">
+        <v>197</v>
+      </c>
+      <c r="B417" s="7">
+        <v>232</v>
+      </c>
+    </row>
     <row r="418">
       <c r="A418" s="6">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="B418" s="7">
-        <v>81</v>
+        <v>233</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="6">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="B419" s="7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="6">
+        <v>201</v>
+      </c>
+      <c r="B420" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="6">
+        <v>200</v>
+      </c>
+      <c r="B421" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="6">
+        <v>201</v>
+      </c>
+      <c r="B422" s="7">
+        <v>237</v>
+      </c>
+    </row>
     <row r="423">
       <c r="A423" s="6">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B423" s="7">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="6">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B424" s="7">
-        <v>356</v>
+        <v>238</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="6">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B425" s="7">
-        <v>83</v>
+        <v>241</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="6">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="B426" s="7">
-        <v>82</v>
+        <v>240</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="6">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="B427" s="7">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="428"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="6">
+        <v>206</v>
+      </c>
+      <c r="B428" s="7">
+        <v>250</v>
+      </c>
+    </row>
     <row r="429">
       <c r="A429" s="6">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B429" s="7">
-        <v>86</v>
+        <v>249</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="6">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="B430" s="7">
-        <v>87</v>
+        <v>249</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="6">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="B431" s="7">
-        <v>90</v>
+        <v>248</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="6">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B432" s="7">
-        <v>91</v>
+        <v>248</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="6">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B433" s="7">
-        <v>121</v>
+        <v>247</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="6">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="B434" s="7">
-        <v>120</v>
+        <v>246</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="6">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="B435" s="7">
-        <v>366</v>
+        <v>245</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="6">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="B436" s="7">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="437"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="6">
+        <v>145</v>
+      </c>
+      <c r="B437" s="7">
+        <v>243</v>
+      </c>
+    </row>
     <row r="438">
       <c r="A438" s="6">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="B438" s="7">
-        <v>354</v>
+        <v>243</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="6">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B439" s="7">
-        <v>100</v>
+        <v>242</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="6">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B440" s="7">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="6">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B441" s="7">
-        <v>102</v>
+        <v>241</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="6">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="B442" s="7">
-        <v>132</v>
+        <v>240</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="6">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B443" s="7">
-        <v>133</v>
+        <v>239</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="6">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B444" s="7">
-        <v>134</v>
+        <v>238</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="6">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B445" s="7">
-        <v>374</v>
+        <v>237</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="6">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B446" s="7">
-        <v>91</v>
+        <v>236</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="6">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B447" s="7">
-        <v>90</v>
+        <v>235</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="6">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="B448" s="7">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="6">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B449" s="7">
-        <v>91</v>
+        <v>229</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="6">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B450" s="7">
-        <v>90</v>
+        <v>228</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="6">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B451" s="7">
         <v>258</v>
@@ -3348,1648 +3684,1116 @@
     </row>
     <row r="452">
       <c r="A452" s="6">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B452" s="7">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B453" s="7">
-        <v>119</v>
+        <v>258</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="6">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B454" s="7">
-        <v>92</v>
+        <v>258</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="6">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B455" s="7">
-        <v>93</v>
+        <v>261</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="6">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B456" s="7">
-        <v>169</v>
+        <v>261</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="6">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B457" s="7">
-        <v>132</v>
+        <v>262</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="6">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="B458" s="7">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="6">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="B459" s="7">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="460"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="6">
+        <v>186</v>
+      </c>
+      <c r="B460" s="7">
+        <v>264</v>
+      </c>
+    </row>
     <row r="461">
       <c r="A461" s="6">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B461" s="7">
-        <v>196</v>
+        <v>270</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="6">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="B462" s="7">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="6">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B463" s="7">
-        <v>95</v>
+        <v>270</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="6">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="B464" s="7">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="6">
+        <v>95</v>
+      </c>
+      <c r="B465" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="6">
+        <v>88</v>
+      </c>
+      <c r="B466" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="6">
+        <v>10</v>
+      </c>
+      <c r="B467" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="6">
+        <v>77</v>
+      </c>
+      <c r="B468" s="7">
+        <v>273</v>
+      </c>
+    </row>
     <row r="469">
       <c r="A469" s="6">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B469" s="7">
-        <v>96</v>
+        <v>273</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="6">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B470" s="7">
-        <v>97</v>
+        <v>274</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="6">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B471" s="7">
-        <v>99</v>
+        <v>274</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="6">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B472" s="7">
-        <v>98</v>
+        <v>274</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="6">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="B473" s="7">
-        <v>100</v>
+        <v>275</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B474" s="7">
-        <v>101</v>
+        <v>275</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="6">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B475" s="7">
-        <v>102</v>
+        <v>275</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="6">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B476" s="7">
-        <v>110</v>
+        <v>276</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B477" s="7">
-        <v>109</v>
+        <v>276</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="6">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B478" s="7">
-        <v>108</v>
+        <v>276</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B479" s="7">
-        <v>107</v>
+        <v>277</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="6">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B480" s="7">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="6">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B481" s="7">
-        <v>105</v>
+        <v>277</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="6">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B482" s="7">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="6">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="B483" s="7">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="6">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B484" s="7">
-        <v>26</v>
+        <v>278</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="6">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B485" s="7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="486"/>
-    <row r="487"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="6">
+        <v>16</v>
+      </c>
+      <c r="B486" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="6">
+        <v>16</v>
+      </c>
+      <c r="B487" s="7">
+        <v>280</v>
+      </c>
+    </row>
     <row r="488">
       <c r="A488" s="6">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B488" s="7">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="6">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B489" s="7">
-        <v>240</v>
+        <v>331</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="6">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B490" s="7">
-        <v>249</v>
+        <v>374</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="6">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B491" s="7">
-        <v>248</v>
+        <v>374</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="6">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B492" s="7">
-        <v>243</v>
+        <v>374</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="6">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="B493" s="7">
-        <v>242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="6">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="B494" s="7">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="6">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="B495" s="7">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="6">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="B496" s="7">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="6">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="B497" s="7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="498"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="6">
+        <v>212</v>
+      </c>
+      <c r="B498" s="7">
+        <v>128</v>
+      </c>
+    </row>
     <row r="499">
       <c r="A499" s="6">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B499" s="7">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="6">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B500" s="7">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="501"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="6">
+        <v>212</v>
+      </c>
+      <c r="B501" s="7">
+        <v>149</v>
+      </c>
+    </row>
     <row r="502">
       <c r="A502" s="6">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B502" s="7">
-        <v>208</v>
+        <v>150</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="6">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B503" s="7">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="6">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B504" s="7">
-        <v>210</v>
+        <v>160</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="6">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B505" s="7">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="6">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="B506" s="7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="6">
+        <v>213</v>
+      </c>
+      <c r="B507" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="6">
+        <v>212</v>
+      </c>
+      <c r="B508" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="6">
+        <v>212</v>
+      </c>
+      <c r="B509" s="7">
+        <v>216</v>
+      </c>
+    </row>
     <row r="510">
       <c r="A510" s="6">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="B510" s="7">
-        <v>152</v>
+        <v>222</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="6">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="B511" s="7">
-        <v>151</v>
+        <v>222</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="6">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B512" s="7">
-        <v>154</v>
+        <v>222</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="6">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B513" s="7">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="6">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B514" s="7">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="6">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B515" s="7">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="6">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B516" s="7">
-        <v>164</v>
+        <v>271</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="6">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="B517" s="7">
-        <v>166</v>
+        <v>271</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="6">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B518" s="7">
-        <v>168</v>
+        <v>271</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="6">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B519" s="7">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="6">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B520" s="7">
-        <v>168</v>
+        <v>272</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="6">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B521" s="7">
-        <v>167</v>
+        <v>272</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="6">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="B522" s="7">
-        <v>169</v>
+        <v>283</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="6">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B523" s="7">
-        <v>171</v>
+        <v>283</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="6">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="B524" s="7">
-        <v>172</v>
+        <v>283</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="6">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="B525" s="7">
-        <v>374</v>
+        <v>283</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="6">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="B526" s="7">
-        <v>183</v>
+        <v>284</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="6">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B527" s="7">
-        <v>184</v>
+        <v>284</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="6">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B528" s="7">
-        <v>185</v>
+        <v>284</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="6">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="B529" s="7">
-        <v>186</v>
+        <v>285</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="6">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B530" s="7">
-        <v>190</v>
+        <v>285</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="6">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="B531" s="7">
-        <v>189</v>
+        <v>285</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="6">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="B532" s="7">
-        <v>188</v>
+        <v>286</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="6">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="B533" s="7">
-        <v>187</v>
+        <v>286</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="6">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B534" s="7">
-        <v>185</v>
+        <v>286</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="6">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="B535" s="7">
-        <v>186</v>
+        <v>287</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="6">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="B536" s="7">
-        <v>188</v>
+        <v>287</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="6">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="B537" s="7">
-        <v>187</v>
+        <v>287</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="6">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="B538" s="7">
-        <v>190</v>
+        <v>288</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="6">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B539" s="7">
-        <v>189</v>
+        <v>288</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="6">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="B540" s="7">
-        <v>193</v>
+        <v>288</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="6">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="B541" s="7">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="542"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="6">
+        <v>212</v>
+      </c>
+      <c r="B542" s="7">
+        <v>321</v>
+      </c>
+    </row>
     <row r="543">
       <c r="A543" s="6">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="B543" s="7">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="6">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="B544" s="7">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="6">
+        <v>35</v>
+      </c>
+      <c r="B545" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="6">
+        <v>35</v>
+      </c>
+      <c r="B546" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="6">
+        <v>212</v>
+      </c>
+      <c r="B547" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="6">
+        <v>106</v>
+      </c>
+      <c r="B548" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="6">
+        <v>49</v>
+      </c>
+      <c r="B549" s="7">
+        <v>322</v>
+      </c>
+    </row>
     <row r="550">
       <c r="A550" s="6">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B550" s="7">
-        <v>200</v>
+        <v>337</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="6">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="B551" s="7">
-        <v>203</v>
+        <v>337</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="6">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="B552" s="7">
-        <v>200</v>
+        <v>368</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="6">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="B553" s="7">
-        <v>201</v>
+        <v>368</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="6">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B554" s="7">
-        <v>202</v>
+        <v>366</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="6">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B555" s="7">
-        <v>204</v>
+        <v>365</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="6">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B556" s="7">
-        <v>208</v>
+        <v>364</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="6">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B557" s="7">
-        <v>209</v>
+        <v>363</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="6">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="B558" s="7">
-        <v>210</v>
+        <v>362</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="6">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="B559" s="7">
-        <v>211</v>
+        <v>361</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="6">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="B560" s="7">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="6">
+        <v>221</v>
+      </c>
+      <c r="B561" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="6">
+        <v>27</v>
+      </c>
+      <c r="B562" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="6">
+        <v>222</v>
+      </c>
+      <c r="B563" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="6">
+        <v>223</v>
+      </c>
+      <c r="B564" s="7">
+        <v>358</v>
+      </c>
+    </row>
     <row r="565">
       <c r="A565" s="6">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="B565" s="7">
-        <v>264</v>
+        <v>357</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="6">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="B566" s="7">
-        <v>24</v>
+        <v>357</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="6">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="B567" s="7">
-        <v>26</v>
+        <v>357</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="6">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B568" s="7">
-        <v>261</v>
+        <v>357</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="6">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="B569" s="7">
-        <v>262</v>
+        <v>356</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="6">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B570" s="7">
-        <v>25</v>
+        <v>356</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="6">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="B571" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="572"/>
-    <row r="573"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="6">
+        <v>77</v>
+      </c>
+      <c r="B572" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="6">
+        <v>123</v>
+      </c>
+      <c r="B573" s="7">
+        <v>354</v>
+      </c>
+    </row>
     <row r="574">
       <c r="A574" s="6">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="B574" s="7">
-        <v>261</v>
+        <v>354</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="6">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="B575" s="7">
-        <v>262</v>
+        <v>354</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="6">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B576" s="7">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="577"/>
-    <row r="578"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="6">
+        <v>49</v>
+      </c>
+      <c r="B577" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="6">
+        <v>59</v>
+      </c>
+      <c r="B578" s="7">
+        <v>350</v>
+      </c>
+    </row>
     <row r="579">
       <c r="A579" s="6">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="B579" s="7">
-        <v>19</v>
+        <v>350</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="6">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="B580" s="7">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="6">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="B581" s="7">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="582"/>
-    <row r="583"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="6">
+        <v>128</v>
+      </c>
+      <c r="B582" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="6">
+        <v>220</v>
+      </c>
+      <c r="B583" s="7">
+        <v>119</v>
+      </c>
+    </row>
     <row r="584">
       <c r="A584" s="6">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B584" s="7">
-        <v>224</v>
+        <v>24</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="6">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B585" s="7">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="586"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="6">
+        <v>183</v>
+      </c>
+      <c r="B586" s="7">
+        <v>26</v>
+      </c>
+    </row>
     <row r="587">
       <c r="A587" s="6">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B587" s="7">
-        <v>226</v>
+        <v>26</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="6">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="B588" s="7">
-        <v>227</v>
+        <v>26</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="6">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="B589" s="7">
-        <v>226</v>
+        <v>24</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="6">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B590" s="7">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="6">
-        <v>197</v>
-      </c>
-      <c r="B591" s="7">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="6">
-        <v>197</v>
-      </c>
-      <c r="B592" s="7">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="6">
-        <v>198</v>
-      </c>
-      <c r="B593" s="7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="6">
-        <v>198</v>
-      </c>
-      <c r="B594" s="7">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="6">
-        <v>199</v>
-      </c>
-      <c r="B595" s="7">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="6">
-        <v>200</v>
-      </c>
-      <c r="B596" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="6">
-        <v>200</v>
-      </c>
-      <c r="B597" s="7">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="6">
-        <v>201</v>
-      </c>
-      <c r="B598" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="6">
-        <v>201</v>
-      </c>
-      <c r="B599" s="7">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="600"/>
-    <row r="601">
-      <c r="A601" s="6">
-        <v>203</v>
-      </c>
-      <c r="B601" s="7">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="6">
-        <v>203</v>
-      </c>
-      <c r="B602" s="7">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="603"/>
-    <row r="604">
-      <c r="A604" s="6">
-        <v>205</v>
-      </c>
-      <c r="B604" s="7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="6">
-        <v>205</v>
-      </c>
-      <c r="B605" s="7">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" s="6">
-        <v>206</v>
-      </c>
-      <c r="B606" s="7">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" s="6">
-        <v>206</v>
-      </c>
-      <c r="B607" s="7">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" s="6">
-        <v>207</v>
-      </c>
-      <c r="B608" s="7">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" s="6">
-        <v>207</v>
-      </c>
-      <c r="B609" s="7">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" s="6">
-        <v>208</v>
-      </c>
-      <c r="B610" s="7">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" s="6">
-        <v>208</v>
-      </c>
-      <c r="B611" s="7">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" s="6">
-        <v>208</v>
-      </c>
-      <c r="B612" s="7">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" s="6">
-        <v>208</v>
-      </c>
-      <c r="B613" s="7">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" s="6">
-        <v>208</v>
-      </c>
-      <c r="B614" s="7">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" s="6">
-        <v>208</v>
-      </c>
-      <c r="B615" s="7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" s="6">
-        <v>209</v>
-      </c>
-      <c r="B616" s="7">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" s="6">
-        <v>209</v>
-      </c>
-      <c r="B617" s="7">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="6">
-        <v>209</v>
-      </c>
-      <c r="B618" s="7">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="6">
-        <v>210</v>
-      </c>
-      <c r="B619" s="7">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="620"/>
-    <row r="621">
-      <c r="A621" s="6">
-        <v>212</v>
-      </c>
-      <c r="B621" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="6">
-        <v>212</v>
-      </c>
-      <c r="B622" s="7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="6">
-        <v>212</v>
-      </c>
-      <c r="B623" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="6">
-        <v>212</v>
-      </c>
-      <c r="B624" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="6">
-        <v>212</v>
-      </c>
-      <c r="B625" s="7">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" s="6">
-        <v>212</v>
-      </c>
-      <c r="B626" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" s="6">
-        <v>212</v>
-      </c>
-      <c r="B627" s="7">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" s="6">
-        <v>212</v>
-      </c>
-      <c r="B628" s="7">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" s="6">
-        <v>212</v>
-      </c>
-      <c r="B629" s="7">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" s="6">
-        <v>212</v>
-      </c>
-      <c r="B630" s="7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" s="6">
-        <v>212</v>
-      </c>
-      <c r="B631" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" s="6">
-        <v>212</v>
-      </c>
-      <c r="B632" s="7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" s="6">
-        <v>212</v>
-      </c>
-      <c r="B633" s="7">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" s="6">
-        <v>212</v>
-      </c>
-      <c r="B634" s="7">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" s="6">
-        <v>212</v>
-      </c>
-      <c r="B635" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" s="6">
-        <v>212</v>
-      </c>
-      <c r="B636" s="7">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" s="6">
-        <v>212</v>
-      </c>
-      <c r="B637" s="7">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" s="6">
-        <v>212</v>
-      </c>
-      <c r="B638" s="7">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" s="6">
-        <v>212</v>
-      </c>
-      <c r="B639" s="7">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" s="6">
-        <v>212</v>
-      </c>
-      <c r="B640" s="7">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" s="6">
-        <v>212</v>
-      </c>
-      <c r="B641" s="7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" s="6">
-        <v>212</v>
-      </c>
-      <c r="B642" s="7">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" s="6">
-        <v>212</v>
-      </c>
-      <c r="B643" s="7">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" s="6">
-        <v>212</v>
-      </c>
-      <c r="B644" s="7">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" s="6">
-        <v>212</v>
-      </c>
-      <c r="B645" s="7">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" s="6">
-        <v>213</v>
-      </c>
-      <c r="B646" s="7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" s="6">
-        <v>213</v>
-      </c>
-      <c r="B647" s="7">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" s="6">
-        <v>213</v>
-      </c>
-      <c r="B648" s="7">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" s="6">
-        <v>213</v>
-      </c>
-      <c r="B649" s="7">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" s="6">
-        <v>214</v>
-      </c>
-      <c r="B650" s="7">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" s="6">
-        <v>214</v>
-      </c>
-      <c r="B651" s="7">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" s="6">
-        <v>215</v>
-      </c>
-      <c r="B652" s="7">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" s="6">
-        <v>215</v>
-      </c>
-      <c r="B653" s="7">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="6">
-        <v>216</v>
-      </c>
-      <c r="B654" s="7">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="6">
-        <v>216</v>
-      </c>
-      <c r="B655" s="7">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659">
-      <c r="A659" s="6">
-        <v>220</v>
-      </c>
-      <c r="B659" s="7">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="6">
-        <v>220</v>
-      </c>
-      <c r="B660" s="7">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="6">
-        <v>220</v>
-      </c>
-      <c r="B661" s="7">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="6">
-        <v>220</v>
-      </c>
-      <c r="B662" s="7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="6">
-        <v>221</v>
-      </c>
-      <c r="B663" s="7">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="6">
-        <v>221</v>
-      </c>
-      <c r="B664" s="7">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="6">
-        <v>222</v>
-      </c>
-      <c r="B665" s="7">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" s="6">
-        <v>222</v>
-      </c>
-      <c r="B666" s="7">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" s="6">
-        <v>223</v>
-      </c>
-      <c r="B667" s="7">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" s="6">
-        <v>223</v>
-      </c>
-      <c r="B668" s="7">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" s="6">
-        <v>224</v>
-      </c>
-      <c r="B669" s="7">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" s="6">
-        <v>225</v>
-      </c>
-      <c r="B670" s="7">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="671"/>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675"/>
-    <row r="676"/>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688"/>
-    <row r="689"/>
-    <row r="690"/>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699"/>
-    <row r="700"/>
-    <row r="701"/>
-    <row r="702"/>
-    <row r="703"/>
-    <row r="704"/>
-    <row r="705"/>
-    <row r="706"/>
-    <row r="707"/>
-    <row r="708"/>
-    <row r="709"/>
-    <row r="710"/>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715"/>
-    <row r="716"/>
-    <row r="717"/>
-    <row r="718"/>
-    <row r="719"/>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722"/>
-    <row r="723"/>
-    <row r="724"/>
-    <row r="725"/>
-    <row r="726"/>
-    <row r="727"/>
-    <row r="728"/>
-    <row r="729"/>
-    <row r="730"/>
-    <row r="731"/>
-    <row r="732"/>
-    <row r="733"/>
-    <row r="734"/>
-    <row r="735"/>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
-    <row r="756"/>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
-    <row r="771"/>
-    <row r="772"/>
-    <row r="773"/>
-    <row r="774"/>
-    <row r="775"/>
-    <row r="776"/>
-    <row r="777"/>
-    <row r="778"/>
-    <row r="779"/>
-    <row r="780"/>
-    <row r="781"/>
-    <row r="782"/>
-    <row r="783"/>
-    <row r="784"/>
-    <row r="785"/>
-    <row r="786"/>
-    <row r="787"/>
-    <row r="788"/>
-    <row r="789"/>
-    <row r="790"/>
-    <row r="791"/>
-    <row r="792"/>
-    <row r="793"/>
-    <row r="794"/>
-    <row r="795"/>
-    <row r="796"/>
-    <row r="797"/>
-    <row r="798"/>
-    <row r="799"/>
-    <row r="800"/>
-    <row r="801"/>
-    <row r="802"/>
-    <row r="803"/>
-    <row r="804"/>
-    <row r="805"/>
-    <row r="806"/>
-    <row r="807"/>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>